--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\Fallen\discord-community-server\Community Roles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6581DA9-59A5-410A-B5AB-82E6C5002018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4806E-05C5-48D7-8FFB-3CA0BD9972EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Role</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>DKP Master</t>
+  </si>
+  <si>
+    <t>Mod</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D96FD33-0C43-4D88-9A2D-E712441FB46F}">
-  <dimension ref="A1:BC21"/>
+  <dimension ref="A1:BC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,47 +925,52 @@
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A21">
-    <sortCondition ref="A17:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A22">
+    <sortCondition ref="A18:A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4806E-05C5-48D7-8FFB-3CA0BD9972EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34147160-ACFE-4FAF-B1FD-C324CE5227E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="78">
   <si>
     <t>Role</t>
   </si>
@@ -62,9 +62,6 @@
     <t>View Audit Log</t>
   </si>
   <si>
-    <t>View Server Insights</t>
-  </si>
-  <si>
     <t>Manage Webhooks</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Manage Nicknames</t>
   </si>
   <si>
-    <t>Kick Members</t>
-  </si>
-  <si>
     <t>Ban Members</t>
   </si>
   <si>
@@ -182,12 +176,6 @@
     <t>Set Voice Channel Status</t>
   </si>
   <si>
-    <t>Stage Channel Permissions</t>
-  </si>
-  <si>
-    <t>Request to Speak</t>
-  </si>
-  <si>
     <t>Events Permissions</t>
   </si>
   <si>
@@ -260,19 +248,44 @@
     <t>Pvp-Guest</t>
   </si>
   <si>
-    <t>DKP Master</t>
-  </si>
-  <si>
     <t>Mod</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Apps Permissions</t>
+  </si>
+  <si>
+    <t>Use External Apps</t>
+  </si>
+  <si>
+    <t>Create Polls</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Kick, Approve, and Reject Members</t>
+  </si>
+  <si>
+    <t>PointSentinel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -299,8 +312,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,341 +653,3309 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D96FD33-0C43-4D88-9A2D-E712441FB46F}">
   <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="48" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="36" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:55" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="S11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" t="s">
+        <v>71</v>
+      </c>
+      <c r="T13" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" t="s">
+        <v>71</v>
+      </c>
+      <c r="V13" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13" t="s">
+        <v>71</v>
+      </c>
+      <c r="X13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" t="s">
+        <v>71</v>
+      </c>
+      <c r="T18" t="s">
+        <v>71</v>
+      </c>
+      <c r="U18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>71</v>
+      </c>
+      <c r="W18" t="s">
+        <v>71</v>
+      </c>
+      <c r="X18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="S20" t="s">
+        <v>71</v>
+      </c>
+      <c r="T20" t="s">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s">
+        <v>71</v>
+      </c>
+      <c r="V20" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s">
+        <v>71</v>
+      </c>
+      <c r="X20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="S21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>75</v>
+      </c>
+      <c r="S22" t="s">
+        <v>71</v>
+      </c>
+      <c r="T22" t="s">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s">
+        <v>71</v>
+      </c>
+      <c r="X22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC22" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A22">
-    <sortCondition ref="A18:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:BC22">
+    <sortCondition ref="A17:A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34147160-ACFE-4FAF-B1FD-C324CE5227E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC673C-BA4E-4D03-8BA5-40C5F1D2F671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>

--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC673C-BA4E-4D03-8BA5-40C5F1D2F671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57D5166-8EBF-42E7-B64C-465D9D0C73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
@@ -2559,10 +2559,10 @@
         <v>71</v>
       </c>
       <c r="Z13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s">
         <v>75</v>
@@ -2574,7 +2574,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s">
         <v>75</v>

--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57D5166-8EBF-42E7-B64C-465D9D0C73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7325EE53-7BF6-4EBE-BD69-7697DB20E4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Current" sheetId="17" r:id="rId1"/>
+    <sheet name="050125" sheetId="17" r:id="rId1"/>
+    <sheet name="Current" sheetId="18" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="84">
   <si>
     <t>Role</t>
   </si>
@@ -270,6 +271,24 @@
   </si>
   <si>
     <t>PointSentinel</t>
+  </si>
+  <si>
+    <t>View Server Insights</t>
+  </si>
+  <si>
+    <t>Stage Channel Permissions</t>
+  </si>
+  <si>
+    <t>Request to Speak</t>
+  </si>
+  <si>
+    <t>PVP Guest</t>
+  </si>
+  <si>
+    <t>PVP Member</t>
+  </si>
+  <si>
+    <t>PVE Guest</t>
   </si>
 </sst>
 </file>
@@ -321,7 +340,46 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -332,6 +390,137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:BC22" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}"/>
+  <tableColumns count="55">
+    <tableColumn id="1" xr3:uid="{2B2E9E74-4A9B-4E97-AC03-F5ECD4E1424A}" name="Role"/>
+    <tableColumn id="2" xr3:uid="{6306F6BE-07BE-4D64-BF1E-B5180438DAE2}" name="General Server Permissions"/>
+    <tableColumn id="3" xr3:uid="{59EA124E-5CCD-4E15-BBB1-3E76081543C7}" name="View Channels"/>
+    <tableColumn id="4" xr3:uid="{2E276120-729A-4F8F-9812-4C34E6355FB9}" name="Manage Channels"/>
+    <tableColumn id="5" xr3:uid="{1DE5C7F9-43D4-47D5-A430-9405E713060D}" name="Manage Roles"/>
+    <tableColumn id="6" xr3:uid="{68C5DBBD-183F-4B5C-B139-EA2C735B1482}" name="Create Expressions"/>
+    <tableColumn id="7" xr3:uid="{C6901BAA-C5AF-4784-81B0-CF07C54E3C48}" name="Manage Expressions"/>
+    <tableColumn id="8" xr3:uid="{B1709D28-93B6-40DA-BF99-398EBF2D04C4}" name="View Audit Log"/>
+    <tableColumn id="9" xr3:uid="{202CE21E-B776-4846-989A-1EF1286E42A4}" name="Manage Webhooks"/>
+    <tableColumn id="10" xr3:uid="{96405F70-0D7E-41E8-AB5A-75A12F256F3D}" name="Manage Server"/>
+    <tableColumn id="11" xr3:uid="{40102265-A92A-4A79-9089-EDE4DDA03DB9}" name="Membership Permissions"/>
+    <tableColumn id="12" xr3:uid="{0256F9B6-B67F-4B7F-99CF-24959CCAC17D}" name="Create Invite"/>
+    <tableColumn id="13" xr3:uid="{FB944E95-94AB-4D5D-A816-A80C278F0A23}" name="Change Nickname"/>
+    <tableColumn id="14" xr3:uid="{95E26886-7484-4E8C-B1BC-4CD5FB06C922}" name="Manage Nicknames"/>
+    <tableColumn id="15" xr3:uid="{0ADAF5DE-2AFF-4CD2-AE98-A4C417884008}" name="Kick, Approve, and Reject Members"/>
+    <tableColumn id="16" xr3:uid="{18EBD3A0-FEFD-473E-96DF-8E5EACBFB8FF}" name="Ban Members"/>
+    <tableColumn id="17" xr3:uid="{7DB301DC-D889-4AC8-A7C9-745072F0626E}" name="Timeout Members"/>
+    <tableColumn id="18" xr3:uid="{DF9DE249-7385-491D-A035-44F9B969B804}" name="Text Channel Permissions"/>
+    <tableColumn id="19" xr3:uid="{89CEFA86-03AF-4169-A4F2-FE07BD1DF638}" name="Send Messages"/>
+    <tableColumn id="20" xr3:uid="{647B9882-66C4-44E9-B327-FE6CCC86B45E}" name="Send Messages in Threads"/>
+    <tableColumn id="21" xr3:uid="{22A96017-0A78-4CEB-8BD9-2155B6DB4220}" name="Create Public Threads"/>
+    <tableColumn id="22" xr3:uid="{42E087A6-CB8B-4E93-A664-FD13EA652966}" name="Create Private Threads"/>
+    <tableColumn id="23" xr3:uid="{1C7E84F2-3599-424A-BA0D-367F26010498}" name="Embed Links"/>
+    <tableColumn id="24" xr3:uid="{D32B4888-8214-4673-A171-CDB04050A7F4}" name="Attach Files"/>
+    <tableColumn id="25" xr3:uid="{F7466B74-189C-4646-9FC3-95DF76CE10CB}" name="Add Reactions"/>
+    <tableColumn id="26" xr3:uid="{B0167A51-D897-4659-97D0-44F29A887222}" name="Use External Emoji"/>
+    <tableColumn id="27" xr3:uid="{0B241D1D-0533-4561-8E1E-7529628491B1}" name="Use External Stickers"/>
+    <tableColumn id="28" xr3:uid="{4C480912-FBD7-474D-A20D-45148B741E69}" name="Mention @everyone, @here, and All Roles"/>
+    <tableColumn id="29" xr3:uid="{26600491-6279-49CF-9593-C6C0C19B0DBC}" name="Manage Messages"/>
+    <tableColumn id="30" xr3:uid="{B2ADD776-7B44-4783-A0EC-45D6836569AF}" name="Manage Threads"/>
+    <tableColumn id="31" xr3:uid="{B5E2B0FB-589D-4D65-98BE-7857F9EBB184}" name="Read Message History"/>
+    <tableColumn id="32" xr3:uid="{CE465AB0-D1E1-4D43-8E76-D43DE4E618B7}" name="Send Text-to-Speech Messages"/>
+    <tableColumn id="33" xr3:uid="{8BB3B024-BCF9-4C2D-B3C0-D1D30B7EF8C2}" name="Send Voice Messages"/>
+    <tableColumn id="34" xr3:uid="{068FD95C-7570-4C91-AF1F-26A78828DBFE}" name="Create Polls"/>
+    <tableColumn id="35" xr3:uid="{A2D1879A-E9C0-45B8-9630-BECBA9272A2F}" name="Voice Channel Permissions"/>
+    <tableColumn id="36" xr3:uid="{EC90FFB3-9414-424E-A0C4-4E8F52A9CB7C}" name="Connect"/>
+    <tableColumn id="37" xr3:uid="{58BB406C-2872-4654-A61D-2157A6D7C66F}" name="Speak"/>
+    <tableColumn id="38" xr3:uid="{958EAA29-7E74-4261-A647-B1A0E222D878}" name="Video"/>
+    <tableColumn id="39" xr3:uid="{2038011B-2CF8-4A2B-9548-160F4EB44313}" name="Use Soundboard"/>
+    <tableColumn id="40" xr3:uid="{A5334A93-392A-4387-82E7-CF4A4EE2F0EE}" name="Use External Sounds"/>
+    <tableColumn id="41" xr3:uid="{B1120A20-A335-49CE-A23B-9BE769F9F848}" name="Use Voice Activity"/>
+    <tableColumn id="42" xr3:uid="{8E12B8BC-E7EE-4CD6-96D1-52597D3BCC15}" name="Priority Speaker"/>
+    <tableColumn id="43" xr3:uid="{71DEF7C8-E176-4648-8C1E-3F30A9B203A9}" name="Mute Members"/>
+    <tableColumn id="44" xr3:uid="{451DCE80-BAD8-459D-9BFF-8BA3CE89C040}" name="Deafen Members"/>
+    <tableColumn id="45" xr3:uid="{97EBBE4B-0F4D-4F86-88FF-9C15F8057FC9}" name="Move Members"/>
+    <tableColumn id="46" xr3:uid="{B4FACB85-A8B8-40E7-BA2B-6FFF41C3D19E}" name="Set Voice Channel Status"/>
+    <tableColumn id="47" xr3:uid="{15E736AE-5EA8-48AD-9ADE-919D1FF9B25F}" name="Apps Permissions"/>
+    <tableColumn id="48" xr3:uid="{B60C5AB3-BFF5-4E9B-9429-0346A343C971}" name="Use Application Commands"/>
+    <tableColumn id="49" xr3:uid="{447E4FC3-F57F-4E53-87F7-338EFCABDF56}" name="Use Activities"/>
+    <tableColumn id="50" xr3:uid="{AF36FC3D-68D0-40B5-AD2D-C9EEC032CD66}" name="Use External Apps"/>
+    <tableColumn id="51" xr3:uid="{39534334-F1EE-4717-BF23-968BBCF23EA9}" name="Events Permissions"/>
+    <tableColumn id="52" xr3:uid="{C27BF04C-15B7-4B8E-9710-4C6BFF6FCBAB}" name="Create Events"/>
+    <tableColumn id="53" xr3:uid="{DFD7D107-1E06-48B3-83A0-C1A5ECD288AD}" name="Manage Events"/>
+    <tableColumn id="54" xr3:uid="{08522FF9-5651-4F8A-8EE6-67292C667C1A}" name="Advanced Permissions"/>
+    <tableColumn id="55" xr3:uid="{8B9487BA-C317-4CD0-91BC-F8A4E5896A38}" name="Administrator"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
+  <tableColumns count="58">
+    <tableColumn id="1" xr3:uid="{0D48C686-A96F-412D-BC99-D5A30D8C6238}" name="Role"/>
+    <tableColumn id="2" xr3:uid="{4A190E7F-2DA9-43BF-920D-8F42786B8776}" name="General Server Permissions"/>
+    <tableColumn id="3" xr3:uid="{17AAA40A-4522-407F-99A9-E302AE421628}" name="View Channels"/>
+    <tableColumn id="4" xr3:uid="{A77C52ED-7775-4BD1-8E9D-C475D890FB9C}" name="Manage Channels"/>
+    <tableColumn id="5" xr3:uid="{5FD732FF-B657-4C8E-BC5F-A7BDB0B19A9D}" name="Manage Roles"/>
+    <tableColumn id="6" xr3:uid="{80F529CB-5585-490C-8C98-21FD9289A06B}" name="Create Expressions"/>
+    <tableColumn id="7" xr3:uid="{F4544CF2-4CDE-41AA-B83A-7B79E624C5DC}" name="Manage Expressions"/>
+    <tableColumn id="8" xr3:uid="{88F76CE5-3EA6-4EAB-A7B6-69CC217B2349}" name="View Audit Log"/>
+    <tableColumn id="9" xr3:uid="{83F27885-FDD8-43A3-9461-DD8128E2AA8F}" name="View Server Insights"/>
+    <tableColumn id="10" xr3:uid="{66169A72-7523-4663-9623-F0CCA7A7E18F}" name="Manage Webhooks"/>
+    <tableColumn id="11" xr3:uid="{993907B4-FE7E-4887-BA10-C3B73CA8A62D}" name="Manage Server"/>
+    <tableColumn id="12" xr3:uid="{72BCE864-4AA9-4E6A-A6F4-4691DC0C6E9B}" name="Membership Permissions"/>
+    <tableColumn id="13" xr3:uid="{B8E76171-B0B2-493D-B9BC-C9109F34B875}" name="Create Invite"/>
+    <tableColumn id="14" xr3:uid="{1B68BBBF-1963-4DBE-9B3A-740913D71C80}" name="Change Nickname"/>
+    <tableColumn id="15" xr3:uid="{99D16FEA-D0FF-4B4A-85EF-C04F4B544556}" name="Manage Nicknames"/>
+    <tableColumn id="16" xr3:uid="{AD42A904-21A6-456B-991F-826B49181A6E}" name="Kick, Approve, and Reject Members"/>
+    <tableColumn id="17" xr3:uid="{809309F2-F8A2-4A70-960C-A5ABA1A630AD}" name="Ban Members"/>
+    <tableColumn id="18" xr3:uid="{D69B8E0A-899A-4673-8A04-F9D4CB7ED79F}" name="Timeout Members"/>
+    <tableColumn id="19" xr3:uid="{C2BB7965-55F8-4414-9B81-780A1375F867}" name="Text Channel Permissions"/>
+    <tableColumn id="20" xr3:uid="{9EA2B1DE-2985-4347-92D1-A40E1FDD5352}" name="Send Messages"/>
+    <tableColumn id="21" xr3:uid="{9CF0A311-FDD1-4D65-9B72-AD1F1BD43F0A}" name="Send Messages in Threads"/>
+    <tableColumn id="22" xr3:uid="{67AC6B30-B85B-444C-82AB-BD617A3CE685}" name="Create Public Threads"/>
+    <tableColumn id="23" xr3:uid="{74421310-553E-441B-BB08-4F263696D69C}" name="Create Private Threads"/>
+    <tableColumn id="24" xr3:uid="{2FFC7C89-508F-4FDC-8E55-B4AA2755DAAB}" name="Embed Links"/>
+    <tableColumn id="25" xr3:uid="{AD14C510-0B49-45C6-8437-B9CAA944BA5E}" name="Attach Files"/>
+    <tableColumn id="26" xr3:uid="{19EEB901-FA3C-44DC-BB78-E085EC511956}" name="Add Reactions"/>
+    <tableColumn id="27" xr3:uid="{A3E42755-2664-447C-B817-86AD17DDD8CE}" name="Use External Emoji"/>
+    <tableColumn id="28" xr3:uid="{57E88273-3D35-4527-8148-1BAB4C412C05}" name="Use External Stickers"/>
+    <tableColumn id="29" xr3:uid="{137E2F91-B9B6-48C3-83AA-5EB4128E0FD0}" name="Mention @everyone, @here, and All Roles"/>
+    <tableColumn id="30" xr3:uid="{C158CC05-8BBE-457C-A160-A3B0387E1E64}" name="Manage Messages"/>
+    <tableColumn id="31" xr3:uid="{A504967D-C047-4556-9D58-330C2C9857DE}" name="Manage Threads"/>
+    <tableColumn id="32" xr3:uid="{148979C0-AC3E-496D-8320-5193A6FFEF7C}" name="Read Message History"/>
+    <tableColumn id="33" xr3:uid="{645C9A2D-2219-4006-A481-20F181F3C070}" name="Send Text-to-Speech Messages"/>
+    <tableColumn id="34" xr3:uid="{CDAC607B-B9FB-4694-90D8-26AA1699B10D}" name="Send Voice Messages"/>
+    <tableColumn id="35" xr3:uid="{0B110FE7-AFA4-4132-888A-172E1188A6E6}" name="Create Polls"/>
+    <tableColumn id="36" xr3:uid="{F5C25419-4A08-4417-B151-BF0D34E365FF}" name="Voice Channel Permissions"/>
+    <tableColumn id="37" xr3:uid="{95B61A16-9119-4519-9E3C-86E0631CFDAC}" name="Connect"/>
+    <tableColumn id="38" xr3:uid="{BDEC3237-7DB8-488D-90D3-BF7D65083182}" name="Speak"/>
+    <tableColumn id="39" xr3:uid="{9655C556-9900-4CB3-9E8B-3E2348C58332}" name="Video"/>
+    <tableColumn id="40" xr3:uid="{EEE6D9DF-99EC-455D-92BA-5B031D44AA99}" name="Use Soundboard"/>
+    <tableColumn id="41" xr3:uid="{279E4297-2A69-4CF2-B776-8C0A66B1B1FD}" name="Use External Sounds"/>
+    <tableColumn id="42" xr3:uid="{C4E1080E-64C7-46EB-8381-BE0220D71465}" name="Use Voice Activity"/>
+    <tableColumn id="43" xr3:uid="{4894DE3F-CADC-467B-AE5A-B95CB7E65DEF}" name="Priority Speaker"/>
+    <tableColumn id="44" xr3:uid="{723C6791-0549-44AD-AC60-A5E0166CBDBC}" name="Mute Members"/>
+    <tableColumn id="45" xr3:uid="{2698C707-C4BA-4926-92F5-60A1B25EF759}" name="Deafen Members"/>
+    <tableColumn id="46" xr3:uid="{DA48DBB5-863A-4F1E-9FC4-5763DC9CACE8}" name="Move Members"/>
+    <tableColumn id="47" xr3:uid="{23EF3F7A-3A99-410A-9196-A8655D6504C5}" name="Set Voice Channel Status"/>
+    <tableColumn id="48" xr3:uid="{7D17EE9A-3DAC-43B9-BBE6-01EC4BB9891E}" name="Apps Permissions"/>
+    <tableColumn id="49" xr3:uid="{74A2D28F-9616-4509-A5F9-2BEDD5C2E6A8}" name="Use Application Commands"/>
+    <tableColumn id="50" xr3:uid="{676C83BE-28F2-4902-81CF-A4D0D5F3F9FC}" name="Use Activities"/>
+    <tableColumn id="51" xr3:uid="{E38BED6E-CD8F-4407-8923-3E9F083C4BD9}" name="Use External Apps"/>
+    <tableColumn id="52" xr3:uid="{9C42FF58-DCE6-42CA-8931-72B0B3F8635E}" name="Stage Channel Permissions"/>
+    <tableColumn id="53" xr3:uid="{1C6E8C44-5328-445F-82CA-F538040D71E5}" name="Request to Speak"/>
+    <tableColumn id="54" xr3:uid="{21A46126-EACE-4851-ABC7-9CB79F05AE0E}" name="Events Permissions"/>
+    <tableColumn id="55" xr3:uid="{31635CF9-E48D-48F1-A5C3-E029071B8BF7}" name="Create Events"/>
+    <tableColumn id="56" xr3:uid="{20EF340C-F328-49CA-9E91-6B527C98BE72}" name="Manage Events"/>
+    <tableColumn id="57" xr3:uid="{98AE9646-B7D3-4D18-AB3C-555ED821680E}" name="Advanced Permissions"/>
+    <tableColumn id="58" xr3:uid="{BD2C5484-A06C-4614-98F4-D9221FAEF197}" name="Administrator"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D96FD33-0C43-4D88-9A2D-E712441FB46F}">
   <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -663,59 +852,60 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="48" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="36" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3957,5 +4147,3306 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AD1202-C8CD-4579-8916-C87AA20139C4}">
+  <dimension ref="A1:BF21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7325EE53-7BF6-4EBE-BD69-7697DB20E4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C70DB60-939E-4416-BF87-1EE5972241EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="050125" sheetId="17" r:id="rId1"/>
-    <sheet name="Current" sheetId="18" r:id="rId2"/>
+    <sheet name="050225" sheetId="18" r:id="rId2"/>
+    <sheet name="Current" sheetId="19" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="84">
   <si>
     <t>Role</t>
   </si>
@@ -340,7 +341,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -393,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:BC22" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}"/>
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{2B2E9E74-4A9B-4E97-AC03-F5ECD4E1424A}" name="Role"/>
@@ -457,7 +477,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{0D48C686-A96F-412D-BC99-D5A30D8C6238}" name="Role"/>
@@ -518,6 +538,73 @@
     <tableColumn id="56" xr3:uid="{20EF340C-F328-49CA-9E91-6B527C98BE72}" name="Manage Events"/>
     <tableColumn id="57" xr3:uid="{98AE9646-B7D3-4D18-AB3C-555ED821680E}" name="Advanced Permissions"/>
     <tableColumn id="58" xr3:uid="{BD2C5484-A06C-4614-98F4-D9221FAEF197}" name="Administrator"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
+  <tableColumns count="58">
+    <tableColumn id="1" xr3:uid="{F802F721-228F-4D5C-82B8-A874EB147986}" name="Role"/>
+    <tableColumn id="2" xr3:uid="{D88BAC0E-F836-4314-86CD-8CBB1F206BCC}" name="General Server Permissions"/>
+    <tableColumn id="3" xr3:uid="{949D6346-DD43-4D8E-92B0-1C1597456359}" name="View Channels"/>
+    <tableColumn id="4" xr3:uid="{BCC37F66-5621-43E6-94B1-17FBD811551D}" name="Manage Channels"/>
+    <tableColumn id="5" xr3:uid="{419F61A8-1F89-45CC-A568-110B31564E06}" name="Manage Roles"/>
+    <tableColumn id="6" xr3:uid="{6F305221-956E-4ED3-9D16-BAFDEBB6EA0C}" name="Create Expressions"/>
+    <tableColumn id="7" xr3:uid="{9A35CA91-DFFD-41A1-B580-E5BE726B8A05}" name="Manage Expressions"/>
+    <tableColumn id="8" xr3:uid="{5909CEFF-D115-4B0C-82D6-C19DB63EBEA0}" name="View Audit Log"/>
+    <tableColumn id="9" xr3:uid="{BD1AB639-C936-46E4-986C-C4EA8DD5143B}" name="View Server Insights"/>
+    <tableColumn id="10" xr3:uid="{2AF0E7DE-F039-41DD-8C15-4C6434296B02}" name="Manage Webhooks"/>
+    <tableColumn id="11" xr3:uid="{DB91E354-1C76-470A-A014-6C3AF952FA53}" name="Manage Server"/>
+    <tableColumn id="12" xr3:uid="{54EB375E-3DA2-44E6-A740-F20DB2ACD9F7}" name="Membership Permissions"/>
+    <tableColumn id="13" xr3:uid="{391BB21A-4222-4253-A9FA-7B70FDAE8B67}" name="Create Invite"/>
+    <tableColumn id="14" xr3:uid="{14210687-EEE7-4F38-9D2F-020ED2BAEAB1}" name="Change Nickname"/>
+    <tableColumn id="15" xr3:uid="{1FBCC585-3885-467A-BA21-9F6E4B8C7B9B}" name="Manage Nicknames"/>
+    <tableColumn id="16" xr3:uid="{DF4688CD-E071-41A7-B62F-EA9B1C541E1B}" name="Kick, Approve, and Reject Members"/>
+    <tableColumn id="17" xr3:uid="{2ABBD703-8420-4C98-A98F-28BA249546C4}" name="Ban Members"/>
+    <tableColumn id="18" xr3:uid="{25382DF3-0F5B-4D20-A3A9-2E4D0635A05C}" name="Timeout Members"/>
+    <tableColumn id="19" xr3:uid="{2976E40E-C62E-4537-AC5D-4860BB8471FC}" name="Text Channel Permissions"/>
+    <tableColumn id="20" xr3:uid="{98596092-54B4-46FF-8461-E431296457B4}" name="Send Messages"/>
+    <tableColumn id="21" xr3:uid="{EDB5FFB5-C91B-4339-8E81-36FBA37782F2}" name="Send Messages in Threads"/>
+    <tableColumn id="22" xr3:uid="{6F253CAF-30EE-4761-BBF7-36F4F9478C02}" name="Create Public Threads"/>
+    <tableColumn id="23" xr3:uid="{29160B42-F72A-499D-B4B0-B652D3A7C101}" name="Create Private Threads"/>
+    <tableColumn id="24" xr3:uid="{E7EA28C6-64D7-45C2-9175-F012AF24A35A}" name="Embed Links"/>
+    <tableColumn id="25" xr3:uid="{BDA2E396-16D2-4D7B-82E3-003AE3BA3E71}" name="Attach Files"/>
+    <tableColumn id="26" xr3:uid="{AD6CE091-090E-4BD0-A7F6-F726BF69DBBB}" name="Add Reactions"/>
+    <tableColumn id="27" xr3:uid="{A3D75419-104C-4FBA-985B-228FE661426B}" name="Use External Emoji"/>
+    <tableColumn id="28" xr3:uid="{302BE691-00EA-4CAD-94E1-9EC181FD5ABC}" name="Use External Stickers"/>
+    <tableColumn id="29" xr3:uid="{DF7FD25D-11D1-4D69-8983-2F4D1D623F7C}" name="Mention @everyone, @here, and All Roles"/>
+    <tableColumn id="30" xr3:uid="{308B85A3-E25D-446B-85D4-D4DC2F05C749}" name="Manage Messages"/>
+    <tableColumn id="31" xr3:uid="{4F0FDDCB-2137-4AFF-8EE0-71A53500E169}" name="Manage Threads"/>
+    <tableColumn id="32" xr3:uid="{4D78DCF3-19FB-487F-8720-96469C150E28}" name="Read Message History"/>
+    <tableColumn id="33" xr3:uid="{78BA7123-982D-432A-95A8-BD8E64F766CF}" name="Send Text-to-Speech Messages"/>
+    <tableColumn id="34" xr3:uid="{5530EAB6-2866-418E-A245-826655101801}" name="Send Voice Messages"/>
+    <tableColumn id="35" xr3:uid="{769CE917-DDC2-44CA-A140-C3BE464DFBC1}" name="Create Polls"/>
+    <tableColumn id="36" xr3:uid="{8ABC1E2E-AF74-41E3-B700-F65564998AD0}" name="Voice Channel Permissions"/>
+    <tableColumn id="37" xr3:uid="{B39A20B0-E3B8-47F4-8D9E-29B8C937307A}" name="Connect"/>
+    <tableColumn id="38" xr3:uid="{FEAE3B94-6B5F-4D60-8B25-3F370AA90416}" name="Speak"/>
+    <tableColumn id="39" xr3:uid="{E2EB7303-2584-4EF4-A224-3419FA88443D}" name="Video"/>
+    <tableColumn id="40" xr3:uid="{6FC356BD-DE48-41AA-BD33-0449707D1A1A}" name="Use Soundboard"/>
+    <tableColumn id="41" xr3:uid="{B66B3529-C74F-40D7-807F-A955EB24599D}" name="Use External Sounds"/>
+    <tableColumn id="42" xr3:uid="{9E3D9A11-C148-4B5C-A62C-7FA1FACC5CB8}" name="Use Voice Activity"/>
+    <tableColumn id="43" xr3:uid="{6FAF8CF8-BD9A-4DB9-BA1B-06AC0A8E611B}" name="Priority Speaker"/>
+    <tableColumn id="44" xr3:uid="{80B86DB5-F961-4053-889D-69CC23067326}" name="Mute Members"/>
+    <tableColumn id="45" xr3:uid="{3117B032-F909-4E33-9554-14B2ADF79DA8}" name="Deafen Members"/>
+    <tableColumn id="46" xr3:uid="{90CB36CB-436B-4735-8ECD-2110464F6918}" name="Move Members"/>
+    <tableColumn id="47" xr3:uid="{FF92FA9D-B409-4018-A35A-D6EE96249AD1}" name="Set Voice Channel Status"/>
+    <tableColumn id="48" xr3:uid="{4B82CDA5-15A1-4B94-8923-8E94647ABF69}" name="Apps Permissions"/>
+    <tableColumn id="49" xr3:uid="{10F60C69-5D35-4854-8164-CEF1B3730A78}" name="Use Application Commands"/>
+    <tableColumn id="50" xr3:uid="{4E47D742-8521-4999-AB34-05A654E19A00}" name="Use Activities"/>
+    <tableColumn id="51" xr3:uid="{B8F51787-2ACF-4C46-B838-DB940EA847F3}" name="Use External Apps"/>
+    <tableColumn id="52" xr3:uid="{1A31FF05-FA8D-49E7-8AE7-74E660526087}" name="Stage Channel Permissions"/>
+    <tableColumn id="53" xr3:uid="{A9450459-318D-444B-963D-18B9D919A818}" name="Request to Speak"/>
+    <tableColumn id="54" xr3:uid="{6929F755-84BD-4E4F-8890-C6E17267646C}" name="Events Permissions"/>
+    <tableColumn id="55" xr3:uid="{0E3E2E3E-8795-4662-AF21-8D77FB140270}" name="Create Events"/>
+    <tableColumn id="56" xr3:uid="{3A234B49-CA02-4A54-A633-713266C6EA86}" name="Manage Events"/>
+    <tableColumn id="57" xr3:uid="{A608FB39-CE3C-41D5-8983-95E6C5CA8A8E}" name="Advanced Permissions"/>
+    <tableColumn id="58" xr3:uid="{EECD39FF-9323-408A-B06D-C48F14C9121D}" name="Administrator"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4157,6 +4244,3304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AD1202-C8CD-4579-8916-C87AA20139C4}">
   <dimension ref="A1:BF21"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB9D8E8-D161-4F52-9204-91608C0B9674}">
+  <dimension ref="A1:BF21"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -5463,7 +8848,7 @@
         <v>75</v>
       </c>
       <c r="BF8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">

--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C70DB60-939E-4416-BF87-1EE5972241EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7274023A-A121-4003-B35F-40F91D0925A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="050125" sheetId="17" r:id="rId1"/>
     <sheet name="050225" sheetId="18" r:id="rId2"/>
-    <sheet name="Current" sheetId="19" r:id="rId3"/>
+    <sheet name="050325" sheetId="19" r:id="rId3"/>
+    <sheet name="Current" sheetId="20" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="84">
   <si>
     <t>Role</t>
   </si>
@@ -341,7 +342,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -413,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:BC22" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}"/>
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{2B2E9E74-4A9B-4E97-AC03-F5ECD4E1424A}" name="Role"/>
@@ -477,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{0D48C686-A96F-412D-BC99-D5A30D8C6238}" name="Role"/>
@@ -544,7 +564,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{F802F721-228F-4D5C-82B8-A874EB147986}" name="Role"/>
@@ -605,6 +625,73 @@
     <tableColumn id="56" xr3:uid="{3A234B49-CA02-4A54-A633-713266C6EA86}" name="Manage Events"/>
     <tableColumn id="57" xr3:uid="{A608FB39-CE3C-41D5-8983-95E6C5CA8A8E}" name="Advanced Permissions"/>
     <tableColumn id="58" xr3:uid="{EECD39FF-9323-408A-B06D-C48F14C9121D}" name="Administrator"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
+  <tableColumns count="58">
+    <tableColumn id="1" xr3:uid="{62C5C7CE-9663-4D8A-B0CA-33328B56533B}" name="Role"/>
+    <tableColumn id="2" xr3:uid="{42D810A3-E121-4996-B427-4B6202297583}" name="General Server Permissions"/>
+    <tableColumn id="3" xr3:uid="{BDFDD5DF-F966-420C-94E3-A144A0515072}" name="View Channels"/>
+    <tableColumn id="4" xr3:uid="{0D613A14-7A52-4080-AD01-A7A56A50C048}" name="Manage Channels"/>
+    <tableColumn id="5" xr3:uid="{188F8154-53FC-405D-8233-5D712F1C5BBD}" name="Manage Roles"/>
+    <tableColumn id="6" xr3:uid="{FD417D0D-B37C-4B5F-B505-A9194B81A730}" name="Create Expressions"/>
+    <tableColumn id="7" xr3:uid="{F8326FFD-74D6-40D0-A53C-1D024E7B1938}" name="Manage Expressions"/>
+    <tableColumn id="8" xr3:uid="{9F1F6FE3-6EAA-41AB-A1E0-2BE6D8C813EB}" name="View Audit Log"/>
+    <tableColumn id="9" xr3:uid="{CAE00C39-C204-459C-B0F0-3C7E27EE10BE}" name="View Server Insights"/>
+    <tableColumn id="10" xr3:uid="{6D9D40CC-A496-4613-B185-04A82BFB9593}" name="Manage Webhooks"/>
+    <tableColumn id="11" xr3:uid="{F43D2D53-190F-4C15-B1E3-2D9150610420}" name="Manage Server"/>
+    <tableColumn id="12" xr3:uid="{31E1632B-326C-47D4-A704-747047712715}" name="Membership Permissions"/>
+    <tableColumn id="13" xr3:uid="{38412517-6F3E-43D9-B1DD-F24F240D3DC1}" name="Create Invite"/>
+    <tableColumn id="14" xr3:uid="{BECB04F7-4B76-4847-85C0-D7019987E720}" name="Change Nickname"/>
+    <tableColumn id="15" xr3:uid="{A29B1082-6946-4BAE-87DB-4FFD84A70F30}" name="Manage Nicknames"/>
+    <tableColumn id="16" xr3:uid="{A76F90CE-056D-4DAC-9C33-7AE72F862146}" name="Kick, Approve, and Reject Members"/>
+    <tableColumn id="17" xr3:uid="{7ABE914B-764B-4D1D-BF10-908704111264}" name="Ban Members"/>
+    <tableColumn id="18" xr3:uid="{4A674554-8663-45E4-992E-6C948F3E770D}" name="Timeout Members"/>
+    <tableColumn id="19" xr3:uid="{1989A0E4-DE0B-457E-BB34-57E4679CA45B}" name="Text Channel Permissions"/>
+    <tableColumn id="20" xr3:uid="{A64B29BD-8652-44A3-A881-6334A96C2F49}" name="Send Messages"/>
+    <tableColumn id="21" xr3:uid="{5472EA36-4C7C-4C1B-8AAC-EE472530D418}" name="Send Messages in Threads"/>
+    <tableColumn id="22" xr3:uid="{AC1AF0C5-4660-43BC-AEC0-279C98279B0A}" name="Create Public Threads"/>
+    <tableColumn id="23" xr3:uid="{047EE475-F217-446C-8887-DB2DB0FCB231}" name="Create Private Threads"/>
+    <tableColumn id="24" xr3:uid="{2B7E314C-25C0-425F-81A2-413B09C82CBC}" name="Embed Links"/>
+    <tableColumn id="25" xr3:uid="{9AD22349-E6CD-4DD5-8E2B-DECEAEC9C091}" name="Attach Files"/>
+    <tableColumn id="26" xr3:uid="{C64C8C51-5CB9-4C5A-A8C8-6FCEECF0A79E}" name="Add Reactions"/>
+    <tableColumn id="27" xr3:uid="{140E0785-C92F-471B-883B-0B8E0A1B71BC}" name="Use External Emoji"/>
+    <tableColumn id="28" xr3:uid="{A02970B8-E9C9-49DF-94B6-EE436188B7E9}" name="Use External Stickers"/>
+    <tableColumn id="29" xr3:uid="{9104ACC2-1C29-4738-BA91-487A39C6699B}" name="Mention @everyone, @here, and All Roles"/>
+    <tableColumn id="30" xr3:uid="{61F4EDAB-E44F-417F-9AF4-37E1A1BC2C09}" name="Manage Messages"/>
+    <tableColumn id="31" xr3:uid="{C37C6B9B-F5EC-4E0F-A087-2F877EC1FFF8}" name="Manage Threads"/>
+    <tableColumn id="32" xr3:uid="{3AA47928-B09F-49DF-A264-CBBE2F6F91CE}" name="Read Message History"/>
+    <tableColumn id="33" xr3:uid="{7EB32EFD-D6B6-4516-AC08-5CE16A4FFE68}" name="Send Text-to-Speech Messages"/>
+    <tableColumn id="34" xr3:uid="{343E8418-E4BB-421B-A974-0CCA67B3C000}" name="Send Voice Messages"/>
+    <tableColumn id="35" xr3:uid="{BFCD0AF3-B991-4107-A12F-A040D28F3366}" name="Create Polls"/>
+    <tableColumn id="36" xr3:uid="{2A805662-1133-41F0-8D2A-DA206D590FFB}" name="Voice Channel Permissions"/>
+    <tableColumn id="37" xr3:uid="{1CABB065-D834-487F-B4D7-1D4A05C82722}" name="Connect"/>
+    <tableColumn id="38" xr3:uid="{B105164C-DC6D-4033-B930-BFDB663D8C64}" name="Speak"/>
+    <tableColumn id="39" xr3:uid="{4D7BFDCC-361E-4C31-BE2A-294D8A3588BA}" name="Video"/>
+    <tableColumn id="40" xr3:uid="{99576C37-F770-4F07-846C-86CFF54FBE90}" name="Use Soundboard"/>
+    <tableColumn id="41" xr3:uid="{A4505E8C-B0C1-4A0C-B136-48757363E024}" name="Use External Sounds"/>
+    <tableColumn id="42" xr3:uid="{EEFBEC55-48D5-420C-A364-3B9E4B4BAA7C}" name="Use Voice Activity"/>
+    <tableColumn id="43" xr3:uid="{79C9900B-9048-4004-A96D-74D23F1466FD}" name="Priority Speaker"/>
+    <tableColumn id="44" xr3:uid="{2A31BC55-C14A-4F5E-93A6-EE463BD8D347}" name="Mute Members"/>
+    <tableColumn id="45" xr3:uid="{AD81C38D-4BC4-488B-AE02-99E373006D5C}" name="Deafen Members"/>
+    <tableColumn id="46" xr3:uid="{F8326CB5-574E-4644-9861-9E6B47C370C7}" name="Move Members"/>
+    <tableColumn id="47" xr3:uid="{A711AAD3-F113-4F22-AB51-8B9250EA2EDD}" name="Set Voice Channel Status"/>
+    <tableColumn id="48" xr3:uid="{02FACC34-1626-46CB-B53E-4DAAAFF7A7B0}" name="Apps Permissions"/>
+    <tableColumn id="49" xr3:uid="{7E6E113B-96D6-40D1-A651-5CA671C6CE62}" name="Use Application Commands"/>
+    <tableColumn id="50" xr3:uid="{EAE24816-147E-4562-AC07-10F267B88EC2}" name="Use Activities"/>
+    <tableColumn id="51" xr3:uid="{F2BE04F7-C3A4-4524-BB67-CEA6647C91FE}" name="Use External Apps"/>
+    <tableColumn id="52" xr3:uid="{89F2703F-4156-455F-9E73-EE178414A7B2}" name="Stage Channel Permissions"/>
+    <tableColumn id="53" xr3:uid="{33623F69-0C3D-48C2-BD2C-905D02D4A12C}" name="Request to Speak"/>
+    <tableColumn id="54" xr3:uid="{0C47DB57-9BE0-4D79-9532-90DE4BE428AF}" name="Events Permissions"/>
+    <tableColumn id="55" xr3:uid="{1AB52E51-8D45-45D1-9051-8ACCE1B915E8}" name="Create Events"/>
+    <tableColumn id="56" xr3:uid="{D56FAB28-B564-4048-BB6E-FB22F1F0110F}" name="Manage Events"/>
+    <tableColumn id="57" xr3:uid="{52079C0C-135F-4469-99E8-25B761A785B6}" name="Advanced Permissions"/>
+    <tableColumn id="58" xr3:uid="{326E96B9-DFBA-4716-A715-21567576F69E}" name="Administrator"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7542,8 +7629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB9D8E8-D161-4F52-9204-91608C0B9674}">
   <dimension ref="A1:BF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -10834,4 +10921,3302 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AA2667-7B16-472E-8560-A73C981CAEB2}">
+  <dimension ref="A1:BF21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7274023A-A121-4003-B35F-40F91D0925A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A47D16-824C-41D7-9E7F-5353F8B005C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="050125" sheetId="17" r:id="rId1"/>
     <sheet name="050225" sheetId="18" r:id="rId2"/>
     <sheet name="050325" sheetId="19" r:id="rId3"/>
-    <sheet name="Current" sheetId="20" r:id="rId4"/>
+    <sheet name="050725" sheetId="20" r:id="rId4"/>
+    <sheet name="Current" sheetId="21" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5345" uniqueCount="85">
   <si>
     <t>Role</t>
   </si>
@@ -292,6 +293,9 @@
   <si>
     <t>PVE Guest</t>
   </si>
+  <si>
+    <t>Ext-AFK</t>
+  </si>
 </sst>
 </file>
 
@@ -342,7 +346,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -433,7 +456,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:BC22" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}"/>
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{2B2E9E74-4A9B-4E97-AC03-F5ECD4E1424A}" name="Role"/>
@@ -497,7 +520,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{0D48C686-A96F-412D-BC99-D5A30D8C6238}" name="Role"/>
@@ -564,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{F802F721-228F-4D5C-82B8-A874EB147986}" name="Role"/>
@@ -631,7 +654,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{62C5C7CE-9663-4D8A-B0CA-33328B56533B}" name="Role"/>
@@ -692,6 +715,73 @@
     <tableColumn id="56" xr3:uid="{D56FAB28-B564-4048-BB6E-FB22F1F0110F}" name="Manage Events"/>
     <tableColumn id="57" xr3:uid="{52079C0C-135F-4469-99E8-25B761A785B6}" name="Advanced Permissions"/>
     <tableColumn id="58" xr3:uid="{326E96B9-DFBA-4716-A715-21567576F69E}" name="Administrator"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF9E34A-2C73-4A42-810C-BBEF4B9144FB}" name="Table2456" displayName="Table2456" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BF22" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
+  <tableColumns count="58">
+    <tableColumn id="1" xr3:uid="{7EA7ADF0-B5AF-4BDA-A3A7-821826903A3F}" name="Role"/>
+    <tableColumn id="2" xr3:uid="{50D26D5A-FF0A-4C86-9CBF-3369BFE73B6C}" name="General Server Permissions"/>
+    <tableColumn id="3" xr3:uid="{44C1D364-9977-48C5-98D8-2E1953C3F077}" name="View Channels"/>
+    <tableColumn id="4" xr3:uid="{E6CEE697-AB9D-48B4-8230-B65907D40638}" name="Manage Channels"/>
+    <tableColumn id="5" xr3:uid="{793A743B-A0E0-4F7B-9F45-766D79E802A5}" name="Manage Roles"/>
+    <tableColumn id="6" xr3:uid="{26F1AA0E-4E69-4150-BF8F-BDEED6B72E24}" name="Create Expressions"/>
+    <tableColumn id="7" xr3:uid="{C286DF77-7729-4EC3-8A6E-E280999272F3}" name="Manage Expressions"/>
+    <tableColumn id="8" xr3:uid="{34251917-9264-4408-ABC0-7CEBC4131B37}" name="View Audit Log"/>
+    <tableColumn id="9" xr3:uid="{EB0D6D3F-7003-47B4-835A-524426203E29}" name="View Server Insights"/>
+    <tableColumn id="10" xr3:uid="{DB9A7082-12E1-4662-93B5-231775DF3BC3}" name="Manage Webhooks"/>
+    <tableColumn id="11" xr3:uid="{45B05B1D-1B74-4750-83C3-1BA4CA578D1E}" name="Manage Server"/>
+    <tableColumn id="12" xr3:uid="{4EB694BA-A52F-4C2C-AD3D-F8E9277822D9}" name="Membership Permissions"/>
+    <tableColumn id="13" xr3:uid="{CCBB1CD9-771D-42E2-8737-87817A57D0E1}" name="Create Invite"/>
+    <tableColumn id="14" xr3:uid="{876A72E3-31B1-40E6-BD66-12EDB280608F}" name="Change Nickname"/>
+    <tableColumn id="15" xr3:uid="{FB2EFB2C-A70E-4EDA-8EF4-F993F14F73EA}" name="Manage Nicknames"/>
+    <tableColumn id="16" xr3:uid="{1ACADC6D-BA36-46C5-887C-546CE65D1EE3}" name="Kick, Approve, and Reject Members"/>
+    <tableColumn id="17" xr3:uid="{8E42945E-087C-431F-A807-284F4D67D405}" name="Ban Members"/>
+    <tableColumn id="18" xr3:uid="{57C2553D-3D59-48FA-9BF8-68A1BA099B56}" name="Timeout Members"/>
+    <tableColumn id="19" xr3:uid="{BF2F2E72-319D-42C1-8DA1-46C8C605DBD1}" name="Text Channel Permissions"/>
+    <tableColumn id="20" xr3:uid="{06C18B8E-F892-43B1-8543-54DCB6511A9B}" name="Send Messages"/>
+    <tableColumn id="21" xr3:uid="{ADC5B6F6-077B-4581-AE38-96DCD9C38AD7}" name="Send Messages in Threads"/>
+    <tableColumn id="22" xr3:uid="{54EBA384-B126-4DFD-BFC8-8F97549CE3FB}" name="Create Public Threads"/>
+    <tableColumn id="23" xr3:uid="{366672E6-559F-4348-B9AE-DC8934CC515D}" name="Create Private Threads"/>
+    <tableColumn id="24" xr3:uid="{B24640F0-A25C-43C3-BD5B-202E72568F15}" name="Embed Links"/>
+    <tableColumn id="25" xr3:uid="{03F5AF29-02C3-41B3-9D22-40FB970E3555}" name="Attach Files"/>
+    <tableColumn id="26" xr3:uid="{88F74CDA-D761-4F96-A37E-CBE2F8302D8F}" name="Add Reactions"/>
+    <tableColumn id="27" xr3:uid="{96E73BFC-EF68-434D-A558-51DF2B1EFB5A}" name="Use External Emoji"/>
+    <tableColumn id="28" xr3:uid="{C20CF8AB-E0F7-43E7-AF4E-912F3CB40AF5}" name="Use External Stickers"/>
+    <tableColumn id="29" xr3:uid="{351E59C1-E310-4401-98F9-775B0FE35FA3}" name="Mention @everyone, @here, and All Roles"/>
+    <tableColumn id="30" xr3:uid="{6FD1E1AF-3C8B-4B74-B591-460EDF670489}" name="Manage Messages"/>
+    <tableColumn id="31" xr3:uid="{B3172AAB-9FF6-4940-A551-9234D8A7017C}" name="Manage Threads"/>
+    <tableColumn id="32" xr3:uid="{C9A37795-4C78-4C76-8CE7-E802F2AE78D1}" name="Read Message History"/>
+    <tableColumn id="33" xr3:uid="{AB6647D3-FED1-4885-81E6-DB9AAC3DC3A8}" name="Send Text-to-Speech Messages"/>
+    <tableColumn id="34" xr3:uid="{BC542E90-40D3-468F-8E4F-A39A6669599E}" name="Send Voice Messages"/>
+    <tableColumn id="35" xr3:uid="{F3C1E64B-AEDA-4E05-AC28-F5B2A23B2E01}" name="Create Polls"/>
+    <tableColumn id="36" xr3:uid="{763B0036-9A8E-40FF-BA9A-10765CC1B73E}" name="Voice Channel Permissions"/>
+    <tableColumn id="37" xr3:uid="{8C14C6B9-F0EA-4824-A92E-2152F331176D}" name="Connect"/>
+    <tableColumn id="38" xr3:uid="{991FC7C8-6800-439B-B462-335DB926D5BB}" name="Speak"/>
+    <tableColumn id="39" xr3:uid="{46BBC9D7-00AE-43D9-8FDD-9F637EB68679}" name="Video"/>
+    <tableColumn id="40" xr3:uid="{090871F2-2D0A-4F8F-ADF5-3E5AA7127100}" name="Use Soundboard"/>
+    <tableColumn id="41" xr3:uid="{E1D028BB-7B3C-48F0-A283-AE2A5013F171}" name="Use External Sounds"/>
+    <tableColumn id="42" xr3:uid="{7775B78B-8686-45FA-A01E-99A2DEF604A8}" name="Use Voice Activity"/>
+    <tableColumn id="43" xr3:uid="{E36867EE-410B-4658-9FB7-6FC41CE6BC98}" name="Priority Speaker"/>
+    <tableColumn id="44" xr3:uid="{BC3DAA09-83AA-4FC0-A95D-B36B684EFC77}" name="Mute Members"/>
+    <tableColumn id="45" xr3:uid="{2C36602F-4CBC-4C78-AB20-C4D576ED83B9}" name="Deafen Members"/>
+    <tableColumn id="46" xr3:uid="{CD89C2B3-167C-4A2E-9448-6CF10D386B0B}" name="Move Members"/>
+    <tableColumn id="47" xr3:uid="{F8D5ED5D-EFF2-45C8-BEE7-30D53A8FF37C}" name="Set Voice Channel Status"/>
+    <tableColumn id="48" xr3:uid="{04774F1D-1E88-4A34-A03F-34775F8039F6}" name="Apps Permissions"/>
+    <tableColumn id="49" xr3:uid="{1948DEF3-E5E3-4321-A2E6-AB081E35C807}" name="Use Application Commands"/>
+    <tableColumn id="50" xr3:uid="{82F6831F-976E-4437-975D-DF2C6E6B9A06}" name="Use Activities"/>
+    <tableColumn id="51" xr3:uid="{6DD1490D-13A2-477C-8F01-D88C968811FE}" name="Use External Apps"/>
+    <tableColumn id="52" xr3:uid="{482744F9-1CCF-475D-824D-7DD3A6C7EFB8}" name="Stage Channel Permissions"/>
+    <tableColumn id="53" xr3:uid="{9FE3F3FF-C079-4696-805B-CD45CAC7F04E}" name="Request to Speak"/>
+    <tableColumn id="54" xr3:uid="{90A8DCAD-8CA3-4DAF-962C-51630385B4A8}" name="Events Permissions"/>
+    <tableColumn id="55" xr3:uid="{5D49ED89-D0DB-4C65-B949-18F274532634}" name="Create Events"/>
+    <tableColumn id="56" xr3:uid="{3AD476BE-A769-4649-AB41-0D2AF19E6050}" name="Manage Events"/>
+    <tableColumn id="57" xr3:uid="{C7B69A17-3944-4AA5-9917-9DBF8EF5ECD3}" name="Advanced Permissions"/>
+    <tableColumn id="58" xr3:uid="{7CA3657D-CF15-451A-AF0C-04CF1D083C56}" name="Administrator"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10927,6 +11017,3304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AA2667-7B16-472E-8560-A73C981CAEB2}">
   <dimension ref="A1:BF21"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824428B1-9867-49ED-B00A-4E6131207265}">
+  <dimension ref="A1:BF22"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -12998,7 +16386,7 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -13150,7 +16538,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -13302,7 +16690,7 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -13454,7 +16842,7 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
@@ -13606,7 +16994,7 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -13758,7 +17146,7 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -13910,7 +17298,7 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
@@ -14062,153 +17450,305 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" t="s">
-        <v>75</v>
-      </c>
-      <c r="N21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" t="s">
-        <v>75</v>
-      </c>
-      <c r="P21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>75</v>
-      </c>
-      <c r="R21" t="s">
-        <v>75</v>
-      </c>
-      <c r="T21" t="s">
-        <v>75</v>
-      </c>
-      <c r="U21" t="s">
-        <v>75</v>
-      </c>
-      <c r="V21" t="s">
-        <v>75</v>
-      </c>
-      <c r="W21" t="s">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF21" t="s">
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" t="s">
+        <v>75</v>
+      </c>
+      <c r="T22" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF22" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\discord-community-server\Community Roles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\fallen-discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A47D16-824C-41D7-9E7F-5353F8B005C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F0C2D3-1081-44E2-AF97-29BCFC0B8123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="050125" sheetId="17" r:id="rId1"/>
     <sheet name="050225" sheetId="18" r:id="rId2"/>
     <sheet name="050325" sheetId="19" r:id="rId3"/>
     <sheet name="050725" sheetId="20" r:id="rId4"/>
-    <sheet name="Current" sheetId="21" r:id="rId5"/>
+    <sheet name="050825" sheetId="21" r:id="rId5"/>
+    <sheet name="Current" sheetId="22" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5345" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6403" uniqueCount="85">
   <si>
     <t>Role</t>
   </si>
@@ -346,7 +347,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -456,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:BC22" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}"/>
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{2B2E9E74-4A9B-4E97-AC03-F5ECD4E1424A}" name="Role"/>
@@ -520,7 +540,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{0D48C686-A96F-412D-BC99-D5A30D8C6238}" name="Role"/>
@@ -587,7 +607,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{F802F721-228F-4D5C-82B8-A874EB147986}" name="Role"/>
@@ -654,7 +674,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{62C5C7CE-9663-4D8A-B0CA-33328B56533B}" name="Role"/>
@@ -721,7 +741,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF9E34A-2C73-4A42-810C-BBEF4B9144FB}" name="Table2456" displayName="Table2456" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF9E34A-2C73-4A42-810C-BBEF4B9144FB}" name="Table2456" displayName="Table2456" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:BF22" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{7EA7ADF0-B5AF-4BDA-A3A7-821826903A3F}" name="Role"/>
@@ -782,6 +802,73 @@
     <tableColumn id="56" xr3:uid="{3AD476BE-A769-4649-AB41-0D2AF19E6050}" name="Manage Events"/>
     <tableColumn id="57" xr3:uid="{C7B69A17-3944-4AA5-9917-9DBF8EF5ECD3}" name="Advanced Permissions"/>
     <tableColumn id="58" xr3:uid="{7CA3657D-CF15-451A-AF0C-04CF1D083C56}" name="Administrator"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D17BB4-5856-4270-B44D-BF7733BCE4F0}" name="Table24567" displayName="Table24567" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
+  <tableColumns count="58">
+    <tableColumn id="1" xr3:uid="{D48B5F1A-7007-46A0-8B99-715F1B519E71}" name="Role"/>
+    <tableColumn id="2" xr3:uid="{06FA69B6-E53C-4113-BB57-40545A39AEB1}" name="General Server Permissions"/>
+    <tableColumn id="3" xr3:uid="{36672FF4-F78F-46D5-A54D-131C35925FCD}" name="View Channels"/>
+    <tableColumn id="4" xr3:uid="{A208ED5C-16AE-4047-9F8E-C486471BFF9B}" name="Manage Channels"/>
+    <tableColumn id="5" xr3:uid="{3BF9212E-2846-45CB-A94C-E6795B7DF6D6}" name="Manage Roles"/>
+    <tableColumn id="6" xr3:uid="{96C744CE-DFBA-4505-A464-42CA632F4B37}" name="Create Expressions"/>
+    <tableColumn id="7" xr3:uid="{68CE4BAB-9700-447F-81FB-6209392F0135}" name="Manage Expressions"/>
+    <tableColumn id="8" xr3:uid="{6A443A24-A001-4369-8AD2-059627617E8E}" name="View Audit Log"/>
+    <tableColumn id="9" xr3:uid="{50D3F260-7E4A-4E1F-B3A3-FD0C55D54910}" name="View Server Insights"/>
+    <tableColumn id="10" xr3:uid="{C1F1CC41-E79D-4781-9D74-A126E63C4C22}" name="Manage Webhooks"/>
+    <tableColumn id="11" xr3:uid="{A11D007C-52F4-4A46-B95B-76A6A9728640}" name="Manage Server"/>
+    <tableColumn id="12" xr3:uid="{1B72A5F8-2B35-4FD6-8C68-E84F821F308F}" name="Membership Permissions"/>
+    <tableColumn id="13" xr3:uid="{C6E0977E-DB20-408C-8ED2-459B9AB38674}" name="Create Invite"/>
+    <tableColumn id="14" xr3:uid="{A8342ED1-4F2D-484F-965D-11694A32F4FF}" name="Change Nickname"/>
+    <tableColumn id="15" xr3:uid="{EF22FFDD-AF4F-4D2F-9000-7735D97FC72D}" name="Manage Nicknames"/>
+    <tableColumn id="16" xr3:uid="{66465602-A645-4147-91F1-561B925DFA17}" name="Kick, Approve, and Reject Members"/>
+    <tableColumn id="17" xr3:uid="{3955C71B-903A-4E0F-927A-E239C32E89F2}" name="Ban Members"/>
+    <tableColumn id="18" xr3:uid="{1C9D2ABD-729F-4B93-9D82-9F2B93D6EA8A}" name="Timeout Members"/>
+    <tableColumn id="19" xr3:uid="{4F72B9F2-7C7C-4FBA-AB83-9097059AA383}" name="Text Channel Permissions"/>
+    <tableColumn id="20" xr3:uid="{AEB11952-58DD-4E4B-A28C-8724D821DE4D}" name="Send Messages"/>
+    <tableColumn id="21" xr3:uid="{06CEBE42-CD08-47B4-B087-22DD0EAFFB68}" name="Send Messages in Threads"/>
+    <tableColumn id="22" xr3:uid="{9FC170F8-872D-4EAF-B2B7-31E7280BE01A}" name="Create Public Threads"/>
+    <tableColumn id="23" xr3:uid="{82F9683B-358A-414B-92B2-07851574E2DD}" name="Create Private Threads"/>
+    <tableColumn id="24" xr3:uid="{23BD8129-5860-4F3B-8488-2C9852B6AE07}" name="Embed Links"/>
+    <tableColumn id="25" xr3:uid="{DF496F7B-D73B-4A66-87C9-059448C7BF65}" name="Attach Files"/>
+    <tableColumn id="26" xr3:uid="{71E42144-1F7D-48A4-9C9D-63AB25FCCD81}" name="Add Reactions"/>
+    <tableColumn id="27" xr3:uid="{369C78FE-3F56-466D-856C-CCA731F5E318}" name="Use External Emoji"/>
+    <tableColumn id="28" xr3:uid="{2E24EF7C-4AEA-4324-9F0E-4177A23A34EB}" name="Use External Stickers"/>
+    <tableColumn id="29" xr3:uid="{56403179-D37E-45C0-933A-EC687F9112A4}" name="Mention @everyone, @here, and All Roles"/>
+    <tableColumn id="30" xr3:uid="{BCD9C9E8-222F-4CE0-A2A1-C2B845B84E61}" name="Manage Messages"/>
+    <tableColumn id="31" xr3:uid="{B9C4ABE9-BB17-4B14-896C-B84D312A0564}" name="Manage Threads"/>
+    <tableColumn id="32" xr3:uid="{18F7F584-E234-44E2-91CC-8CD450C80E8A}" name="Read Message History"/>
+    <tableColumn id="33" xr3:uid="{95E4F787-2836-4616-9FBE-30D73CE70D30}" name="Send Text-to-Speech Messages"/>
+    <tableColumn id="34" xr3:uid="{40634C29-E467-4F43-91AC-D3C323188BF4}" name="Send Voice Messages"/>
+    <tableColumn id="35" xr3:uid="{9C3551BA-55A5-4414-B6EE-0D046581A16C}" name="Create Polls"/>
+    <tableColumn id="36" xr3:uid="{1CE20239-E1FE-47C0-87E3-8C852D647628}" name="Voice Channel Permissions"/>
+    <tableColumn id="37" xr3:uid="{4A929239-C982-4DFE-9DE4-2C9A2676F6F5}" name="Connect"/>
+    <tableColumn id="38" xr3:uid="{AE4C0C7E-370D-45A8-B2B8-C9AD376CB348}" name="Speak"/>
+    <tableColumn id="39" xr3:uid="{BF953673-2F15-441B-B4F4-E75081059E4B}" name="Video"/>
+    <tableColumn id="40" xr3:uid="{47182AC2-8FD2-46D0-898D-57D43AFE425C}" name="Use Soundboard"/>
+    <tableColumn id="41" xr3:uid="{4FF59410-46AA-478F-AA75-EEB544AC38C8}" name="Use External Sounds"/>
+    <tableColumn id="42" xr3:uid="{F7B87FF8-AFA1-4C7B-885B-1BAF41F9266C}" name="Use Voice Activity"/>
+    <tableColumn id="43" xr3:uid="{4EDD20B2-0181-42A5-BD17-65F957F5F97C}" name="Priority Speaker"/>
+    <tableColumn id="44" xr3:uid="{1F6117B3-9C78-4509-8DF9-A27190127DB3}" name="Mute Members"/>
+    <tableColumn id="45" xr3:uid="{3E5929CB-8FEC-4180-BABE-D5BE26B2E9B6}" name="Deafen Members"/>
+    <tableColumn id="46" xr3:uid="{E79DF7C5-2B92-4255-AF44-5F07DA8FE876}" name="Move Members"/>
+    <tableColumn id="47" xr3:uid="{B3B93E13-131B-40CA-9373-CD7F18598641}" name="Set Voice Channel Status"/>
+    <tableColumn id="48" xr3:uid="{A38B5EB7-A06A-48C1-B5A8-ECD3775975DD}" name="Apps Permissions"/>
+    <tableColumn id="49" xr3:uid="{149FFC72-88DE-4859-BA92-3D53F851031D}" name="Use Application Commands"/>
+    <tableColumn id="50" xr3:uid="{52BE4620-BD22-4ACA-9F6E-195012DB868B}" name="Use Activities"/>
+    <tableColumn id="51" xr3:uid="{FEA77328-CCA2-4E59-B803-13647F4FC2A6}" name="Use External Apps"/>
+    <tableColumn id="52" xr3:uid="{8B4A1E32-DCBB-439A-897F-32633BA1379F}" name="Stage Channel Permissions"/>
+    <tableColumn id="53" xr3:uid="{E93DC0F1-41CE-424F-8B46-E4FD336785A2}" name="Request to Speak"/>
+    <tableColumn id="54" xr3:uid="{FE2EF3C3-7229-4700-AA2A-7795652A0E7D}" name="Events Permissions"/>
+    <tableColumn id="55" xr3:uid="{80C61236-69EE-4A88-9BC6-9D09F0319EE6}" name="Create Events"/>
+    <tableColumn id="56" xr3:uid="{A9924A0D-55B3-4067-A41A-AF6FDCF07942}" name="Manage Events"/>
+    <tableColumn id="57" xr3:uid="{BD4BFAED-D7AD-4427-BD11-B05BF44D2D74}" name="Advanced Permissions"/>
+    <tableColumn id="58" xr3:uid="{B17A804F-D406-4C51-8FDD-763F8F7AB97A}" name="Administrator"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14315,6 +14402,3456 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824428B1-9867-49ED-B00A-4E6131207265}">
   <dimension ref="A1:BF22"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" t="s">
+        <v>75</v>
+      </c>
+      <c r="T22" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FDF0F7-E95C-4F56-B4F4-6D1E430B29FF}">
+  <dimension ref="A1:BF21"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -17450,7 +20987,7 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>75</v>
@@ -17483,7 +21020,7 @@
         <v>75</v>
       </c>
       <c r="N21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O21" t="s">
         <v>75</v>
@@ -17597,158 +21134,6 @@
         <v>75</v>
       </c>
       <c r="BF21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>75</v>
-      </c>
-      <c r="R22" t="s">
-        <v>75</v>
-      </c>
-      <c r="T22" t="s">
-        <v>75</v>
-      </c>
-      <c r="U22" t="s">
-        <v>75</v>
-      </c>
-      <c r="V22" t="s">
-        <v>75</v>
-      </c>
-      <c r="W22" t="s">
-        <v>75</v>
-      </c>
-      <c r="X22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF22" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\fallen-discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F0C2D3-1081-44E2-AF97-29BCFC0B8123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44132134-F424-4F4D-B283-A0232EC445B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="050125" sheetId="17" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="050325" sheetId="19" r:id="rId3"/>
     <sheet name="050725" sheetId="20" r:id="rId4"/>
     <sheet name="050825" sheetId="21" r:id="rId5"/>
-    <sheet name="Current" sheetId="22" r:id="rId6"/>
+    <sheet name="051325" sheetId="22" r:id="rId6"/>
+    <sheet name="Current" sheetId="23" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6403" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7511" uniqueCount="86">
   <si>
     <t>Role</t>
   </si>
@@ -297,6 +298,9 @@
   <si>
     <t>Ext-AFK</t>
   </si>
+  <si>
+    <t>Paragon</t>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +351,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -476,7 +499,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:BC22" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}"/>
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{2B2E9E74-4A9B-4E97-AC03-F5ECD4E1424A}" name="Role"/>
@@ -540,7 +563,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{0D48C686-A96F-412D-BC99-D5A30D8C6238}" name="Role"/>
@@ -607,7 +630,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{F802F721-228F-4D5C-82B8-A874EB147986}" name="Role"/>
@@ -674,7 +697,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{62C5C7CE-9663-4D8A-B0CA-33328B56533B}" name="Role"/>
@@ -741,7 +764,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF9E34A-2C73-4A42-810C-BBEF4B9144FB}" name="Table2456" displayName="Table2456" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF9E34A-2C73-4A42-810C-BBEF4B9144FB}" name="Table2456" displayName="Table2456" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:BF22" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{7EA7ADF0-B5AF-4BDA-A3A7-821826903A3F}" name="Role"/>
@@ -808,7 +831,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D17BB4-5856-4270-B44D-BF7733BCE4F0}" name="Table24567" displayName="Table24567" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D17BB4-5856-4270-B44D-BF7733BCE4F0}" name="Table24567" displayName="Table24567" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{D48B5F1A-7007-46A0-8B99-715F1B519E71}" name="Role"/>
@@ -869,6 +892,73 @@
     <tableColumn id="56" xr3:uid="{A9924A0D-55B3-4067-A41A-AF6FDCF07942}" name="Manage Events"/>
     <tableColumn id="57" xr3:uid="{BD4BFAED-D7AD-4427-BD11-B05BF44D2D74}" name="Advanced Permissions"/>
     <tableColumn id="58" xr3:uid="{B17A804F-D406-4C51-8FDD-763F8F7AB97A}" name="Administrator"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7B7D03F5-13A0-4099-833C-0531FD789F16}" name="Table245678" displayName="Table245678" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BF22" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
+  <tableColumns count="58">
+    <tableColumn id="1" xr3:uid="{D45F072C-78E9-476A-8900-9F10ADB27876}" name="Role"/>
+    <tableColumn id="2" xr3:uid="{50823E17-2703-46EE-99D4-E07BB3AF7D22}" name="General Server Permissions"/>
+    <tableColumn id="3" xr3:uid="{F0EECECE-00D5-45BE-B440-BECE1D5D8836}" name="View Channels"/>
+    <tableColumn id="4" xr3:uid="{FDC6E70E-CF7A-4F29-9F82-6F569109C92D}" name="Manage Channels"/>
+    <tableColumn id="5" xr3:uid="{BC534A9F-C287-4D42-93F6-18EFA9A938E8}" name="Manage Roles"/>
+    <tableColumn id="6" xr3:uid="{8A98FBE8-8D5F-4C41-905B-BEC88235583E}" name="Create Expressions"/>
+    <tableColumn id="7" xr3:uid="{D5E10CA3-2A7F-4A86-806E-8FB69A094952}" name="Manage Expressions"/>
+    <tableColumn id="8" xr3:uid="{202B7B84-9614-409F-BFCE-34EFE8A4B418}" name="View Audit Log"/>
+    <tableColumn id="9" xr3:uid="{74ED500D-D68E-4A51-AA5F-598FEBB6895B}" name="View Server Insights"/>
+    <tableColumn id="10" xr3:uid="{7A12C3AE-66C9-415A-B08D-C4DD871E9ADB}" name="Manage Webhooks"/>
+    <tableColumn id="11" xr3:uid="{2B9275C0-6C24-43FF-BFBD-EEE0C31590C6}" name="Manage Server"/>
+    <tableColumn id="12" xr3:uid="{1D896D95-C3DC-40B1-837B-6BC8D21080CE}" name="Membership Permissions"/>
+    <tableColumn id="13" xr3:uid="{B7E92C63-C0BA-4A3D-8974-4A2E50113BF6}" name="Create Invite"/>
+    <tableColumn id="14" xr3:uid="{C3E8518D-7FAE-4A52-9A32-8E51D2EF1C7E}" name="Change Nickname"/>
+    <tableColumn id="15" xr3:uid="{D1801F9A-3AE1-41BD-B6F4-E2D2D0E026ED}" name="Manage Nicknames"/>
+    <tableColumn id="16" xr3:uid="{C32EF1CE-5FD5-456A-9B1F-5B8D008EF35C}" name="Kick, Approve, and Reject Members"/>
+    <tableColumn id="17" xr3:uid="{86D70326-D3C7-47F4-8581-3D9AC35F07C0}" name="Ban Members"/>
+    <tableColumn id="18" xr3:uid="{C64173EE-34C7-41B3-B570-DA2FB3720AC3}" name="Timeout Members"/>
+    <tableColumn id="19" xr3:uid="{E59D144C-3CDD-4A9C-A9A2-064C2E23B6BA}" name="Text Channel Permissions"/>
+    <tableColumn id="20" xr3:uid="{4A03C922-8B82-401C-BB02-5A92384B5D3A}" name="Send Messages"/>
+    <tableColumn id="21" xr3:uid="{E6F0FDC7-701A-4877-9CB9-46BC70FE9FA8}" name="Send Messages in Threads"/>
+    <tableColumn id="22" xr3:uid="{47B8D2F9-EEAA-4706-93B0-6F4A1285E1BA}" name="Create Public Threads"/>
+    <tableColumn id="23" xr3:uid="{6276C5B2-5D79-4C50-8857-F66E9075299D}" name="Create Private Threads"/>
+    <tableColumn id="24" xr3:uid="{AAD18AF2-05DF-4202-9295-21D51A01F75E}" name="Embed Links"/>
+    <tableColumn id="25" xr3:uid="{67E01900-632C-4DF1-887A-A25C4BEBE36F}" name="Attach Files"/>
+    <tableColumn id="26" xr3:uid="{520D74D5-2018-4CA4-BEF2-1481FF08B60B}" name="Add Reactions"/>
+    <tableColumn id="27" xr3:uid="{0698393E-902B-419E-9BFC-0A5F14B9FD12}" name="Use External Emoji"/>
+    <tableColumn id="28" xr3:uid="{CB2AAAC1-D4FB-4C30-937B-0D94A85FB88F}" name="Use External Stickers"/>
+    <tableColumn id="29" xr3:uid="{90B6429D-784A-468F-8D59-82A1AA851A1F}" name="Mention @everyone, @here, and All Roles"/>
+    <tableColumn id="30" xr3:uid="{879D857B-EF12-4DC3-AEC8-B6A5B16961A9}" name="Manage Messages"/>
+    <tableColumn id="31" xr3:uid="{79D8EC4A-4CA7-449F-9CD1-93F5C9589A48}" name="Manage Threads"/>
+    <tableColumn id="32" xr3:uid="{82DAE5C1-9B18-4758-A5BC-59FF17D61673}" name="Read Message History"/>
+    <tableColumn id="33" xr3:uid="{0953BB5A-D258-4020-9EC3-72D6746221E7}" name="Send Text-to-Speech Messages"/>
+    <tableColumn id="34" xr3:uid="{E5DB4F82-AB63-4E03-8C7A-22646A4D3F68}" name="Send Voice Messages"/>
+    <tableColumn id="35" xr3:uid="{8674098A-4A4B-4A6A-98FF-96731B5F33C1}" name="Create Polls"/>
+    <tableColumn id="36" xr3:uid="{BCF9952E-AD12-4C87-AB06-0BADF8CC261E}" name="Voice Channel Permissions"/>
+    <tableColumn id="37" xr3:uid="{1073A952-54DA-4BE1-B763-B1A1BF83C81C}" name="Connect"/>
+    <tableColumn id="38" xr3:uid="{42AC839C-BD01-47AB-9573-428DE44FB517}" name="Speak"/>
+    <tableColumn id="39" xr3:uid="{8014F761-3056-4C70-A7EF-171296B1D09A}" name="Video"/>
+    <tableColumn id="40" xr3:uid="{DB36E860-C03A-4574-8136-6B827B13E57E}" name="Use Soundboard"/>
+    <tableColumn id="41" xr3:uid="{A0A20B31-8A4C-4FBB-815E-3FA9484631F8}" name="Use External Sounds"/>
+    <tableColumn id="42" xr3:uid="{AF5E1C8C-FA1E-4890-B768-6A7406BC1BC2}" name="Use Voice Activity"/>
+    <tableColumn id="43" xr3:uid="{0270C946-423E-435A-91EF-73191573BBB9}" name="Priority Speaker"/>
+    <tableColumn id="44" xr3:uid="{9C31E792-F8E7-4D9C-92A3-0623B534B8E6}" name="Mute Members"/>
+    <tableColumn id="45" xr3:uid="{813514E1-C440-48FB-BC93-46E67FE304CF}" name="Deafen Members"/>
+    <tableColumn id="46" xr3:uid="{D710BE22-5D33-4868-9CEF-7AFDA221921B}" name="Move Members"/>
+    <tableColumn id="47" xr3:uid="{D9EB1E6B-1BFB-443E-94F1-3128E7AF0D82}" name="Set Voice Channel Status"/>
+    <tableColumn id="48" xr3:uid="{2CA3F7F3-016B-405A-BC89-B9AAA0331ED5}" name="Apps Permissions"/>
+    <tableColumn id="49" xr3:uid="{0C382486-9D6D-4E0C-B1D7-EC8D3D1E313A}" name="Use Application Commands"/>
+    <tableColumn id="50" xr3:uid="{0D8B988E-981C-4D6B-8FAB-2CAB8EE2D075}" name="Use Activities"/>
+    <tableColumn id="51" xr3:uid="{A0772412-A887-4F8F-877F-3F786C81A367}" name="Use External Apps"/>
+    <tableColumn id="52" xr3:uid="{3DDFE389-2833-42A5-BE01-8652A1044BBB}" name="Stage Channel Permissions"/>
+    <tableColumn id="53" xr3:uid="{D9E3B30F-365F-4B7C-A2E8-0531BA1CC5F8}" name="Request to Speak"/>
+    <tableColumn id="54" xr3:uid="{A2606883-B7A7-4D30-83F5-8C70AEFE0970}" name="Events Permissions"/>
+    <tableColumn id="55" xr3:uid="{1F673547-391E-4D1F-89D6-8651122FE1F3}" name="Create Events"/>
+    <tableColumn id="56" xr3:uid="{25E70B2E-C4A9-4863-841F-6E3CA16F6506}" name="Manage Events"/>
+    <tableColumn id="57" xr3:uid="{49402781-32D5-4992-9FC2-B3A47FA0D030}" name="Advanced Permissions"/>
+    <tableColumn id="58" xr3:uid="{3C6A8629-90B3-44BB-B72D-E6DE24417318}" name="Administrator"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17852,6 +17942,3304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FDF0F7-E95C-4F56-B4F4-6D1E430B29FF}">
   <dimension ref="A1:BF21"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35687895-CD9E-436E-9CC3-A4DCE3811747}">
+  <dimension ref="A1:BF22"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -19467,7 +22855,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -19619,7 +23007,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -19771,7 +23159,7 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
@@ -19923,7 +23311,7 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -20075,7 +23463,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -20227,7 +23615,7 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -20379,7 +23767,7 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
@@ -20531,7 +23919,7 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -20683,7 +24071,7 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -20835,7 +24223,7 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
@@ -20987,153 +24375,305 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" t="s">
-        <v>75</v>
-      </c>
-      <c r="N21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" t="s">
-        <v>75</v>
-      </c>
-      <c r="P21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>75</v>
-      </c>
-      <c r="R21" t="s">
-        <v>75</v>
-      </c>
-      <c r="T21" t="s">
-        <v>75</v>
-      </c>
-      <c r="U21" t="s">
-        <v>75</v>
-      </c>
-      <c r="V21" t="s">
-        <v>75</v>
-      </c>
-      <c r="W21" t="s">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF21" t="s">
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" t="s">
+        <v>75</v>
+      </c>
+      <c r="T22" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF22" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\fallen-discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44132134-F424-4F4D-B283-A0232EC445B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA83EA25-C4E5-4109-8B1F-A0CBB4470917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="050125" sheetId="17" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="050725" sheetId="20" r:id="rId4"/>
     <sheet name="050825" sheetId="21" r:id="rId5"/>
     <sheet name="051325" sheetId="22" r:id="rId6"/>
-    <sheet name="Current" sheetId="23" r:id="rId7"/>
+    <sheet name="052425" sheetId="23" r:id="rId7"/>
+    <sheet name="Current" sheetId="24" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7511" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8569" uniqueCount="86">
   <si>
     <t>Role</t>
   </si>
@@ -351,7 +352,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -499,7 +519,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:BC22" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}"/>
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{2B2E9E74-4A9B-4E97-AC03-F5ECD4E1424A}" name="Role"/>
@@ -563,7 +583,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{0D48C686-A96F-412D-BC99-D5A30D8C6238}" name="Role"/>
@@ -630,7 +650,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{F802F721-228F-4D5C-82B8-A874EB147986}" name="Role"/>
@@ -697,7 +717,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{62C5C7CE-9663-4D8A-B0CA-33328B56533B}" name="Role"/>
@@ -764,7 +784,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF9E34A-2C73-4A42-810C-BBEF4B9144FB}" name="Table2456" displayName="Table2456" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF9E34A-2C73-4A42-810C-BBEF4B9144FB}" name="Table2456" displayName="Table2456" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:BF22" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{7EA7ADF0-B5AF-4BDA-A3A7-821826903A3F}" name="Role"/>
@@ -831,7 +851,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D17BB4-5856-4270-B44D-BF7733BCE4F0}" name="Table24567" displayName="Table24567" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D17BB4-5856-4270-B44D-BF7733BCE4F0}" name="Table24567" displayName="Table24567" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{D48B5F1A-7007-46A0-8B99-715F1B519E71}" name="Role"/>
@@ -898,7 +918,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7B7D03F5-13A0-4099-833C-0531FD789F16}" name="Table245678" displayName="Table245678" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7B7D03F5-13A0-4099-833C-0531FD789F16}" name="Table245678" displayName="Table245678" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:BF22" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{D45F072C-78E9-476A-8900-9F10ADB27876}" name="Role"/>
@@ -959,6 +979,73 @@
     <tableColumn id="56" xr3:uid="{25E70B2E-C4A9-4863-841F-6E3CA16F6506}" name="Manage Events"/>
     <tableColumn id="57" xr3:uid="{49402781-32D5-4992-9FC2-B3A47FA0D030}" name="Advanced Permissions"/>
     <tableColumn id="58" xr3:uid="{3C6A8629-90B3-44BB-B72D-E6DE24417318}" name="Administrator"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7615AE6C-233F-4B77-AA21-343382C72510}" name="Table2456789" displayName="Table2456789" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
+  <tableColumns count="58">
+    <tableColumn id="1" xr3:uid="{6D8CBA23-362D-4997-8E42-6AB47C3B0AAE}" name="Role"/>
+    <tableColumn id="2" xr3:uid="{E5B5FF4C-C2A9-4D5E-8D2B-FCBE16200DF2}" name="General Server Permissions"/>
+    <tableColumn id="3" xr3:uid="{44708E9F-47F8-4FEF-9001-C52689D86EDE}" name="View Channels"/>
+    <tableColumn id="4" xr3:uid="{43AAFEED-9171-4AF6-8D73-FC6BFFB4E9D6}" name="Manage Channels"/>
+    <tableColumn id="5" xr3:uid="{82712D6C-3DE5-4B18-9C2B-A17AA432409F}" name="Manage Roles"/>
+    <tableColumn id="6" xr3:uid="{7624140E-3DBE-4304-B004-9CE8B8DE2D92}" name="Create Expressions"/>
+    <tableColumn id="7" xr3:uid="{A859CED5-1AF7-4E99-8985-D177C1553AF9}" name="Manage Expressions"/>
+    <tableColumn id="8" xr3:uid="{8FC4D047-D5BB-4935-8104-3561A5CF5F67}" name="View Audit Log"/>
+    <tableColumn id="9" xr3:uid="{95E59CF7-9700-4A53-A88B-DEFAB63C44CA}" name="View Server Insights"/>
+    <tableColumn id="10" xr3:uid="{44EA8A4E-6817-447F-A562-B13D95DA0135}" name="Manage Webhooks"/>
+    <tableColumn id="11" xr3:uid="{AA4FCCC2-8E52-4EE4-A60E-53BE43F74AAD}" name="Manage Server"/>
+    <tableColumn id="12" xr3:uid="{1D987E52-891C-4788-8583-14D883D9C515}" name="Membership Permissions"/>
+    <tableColumn id="13" xr3:uid="{864CF633-6B5F-47A6-8F49-89788EF3659D}" name="Create Invite"/>
+    <tableColumn id="14" xr3:uid="{9BE8E7B9-B42A-4196-9A2F-3C2E6C1F28E1}" name="Change Nickname"/>
+    <tableColumn id="15" xr3:uid="{4969AD42-5144-4130-8AC7-2EE94F84A101}" name="Manage Nicknames"/>
+    <tableColumn id="16" xr3:uid="{932B5882-0BE8-4D19-844B-F511F98AD0B7}" name="Kick, Approve, and Reject Members"/>
+    <tableColumn id="17" xr3:uid="{5AC78653-EA50-440A-A870-B7897CCE5DE7}" name="Ban Members"/>
+    <tableColumn id="18" xr3:uid="{3AC7A609-776D-4FD4-B85C-675DBEF58C8C}" name="Timeout Members"/>
+    <tableColumn id="19" xr3:uid="{9DA44528-FD60-4DE2-AE08-A940BB141123}" name="Text Channel Permissions"/>
+    <tableColumn id="20" xr3:uid="{D6ED609E-3714-456F-8F5F-92E7FDF6704B}" name="Send Messages"/>
+    <tableColumn id="21" xr3:uid="{7C3C148A-7B0D-459D-BE07-FFBA43FEC29B}" name="Send Messages in Threads"/>
+    <tableColumn id="22" xr3:uid="{6B47396D-D85F-48A9-AE92-84598F35838D}" name="Create Public Threads"/>
+    <tableColumn id="23" xr3:uid="{51B21BD9-6401-4C5B-BC28-A999CA5BA555}" name="Create Private Threads"/>
+    <tableColumn id="24" xr3:uid="{3C0A9FCA-2066-481D-8A3F-87A4B1045A18}" name="Embed Links"/>
+    <tableColumn id="25" xr3:uid="{AC120E03-9477-465B-9254-2FF67476D944}" name="Attach Files"/>
+    <tableColumn id="26" xr3:uid="{457A35FB-EA81-4762-986A-1D9998B219AC}" name="Add Reactions"/>
+    <tableColumn id="27" xr3:uid="{0F03E9B4-637B-405D-947B-7322833CD56D}" name="Use External Emoji"/>
+    <tableColumn id="28" xr3:uid="{BBA77C18-ACC6-481C-A966-DD2AA6A3C109}" name="Use External Stickers"/>
+    <tableColumn id="29" xr3:uid="{3460C3C4-159C-474D-A3F7-304E14723F7C}" name="Mention @everyone, @here, and All Roles"/>
+    <tableColumn id="30" xr3:uid="{57E5F62A-EF70-43C4-AD32-C04EEFD02B5E}" name="Manage Messages"/>
+    <tableColumn id="31" xr3:uid="{C4E259EB-3A56-4D24-92CA-C4B21A57371B}" name="Manage Threads"/>
+    <tableColumn id="32" xr3:uid="{6BE999BA-0B29-44B4-A2F7-635B07C84AD7}" name="Read Message History"/>
+    <tableColumn id="33" xr3:uid="{DCF8DCBF-BA9E-4E6A-AE20-8DAE7A0519AD}" name="Send Text-to-Speech Messages"/>
+    <tableColumn id="34" xr3:uid="{9899E985-3421-444D-ACE6-BE4C0FDCDEE6}" name="Send Voice Messages"/>
+    <tableColumn id="35" xr3:uid="{B963285B-4258-4C05-92E2-6C2BC87EA39B}" name="Create Polls"/>
+    <tableColumn id="36" xr3:uid="{AA373D0D-BB77-4D3E-98CA-CABB0F67AC7D}" name="Voice Channel Permissions"/>
+    <tableColumn id="37" xr3:uid="{788D7254-13DD-4F35-A3E2-B2E7D8383483}" name="Connect"/>
+    <tableColumn id="38" xr3:uid="{A5792D03-27E1-49D7-BB96-8E70C23EE1D5}" name="Speak"/>
+    <tableColumn id="39" xr3:uid="{A49969E7-673A-4F7C-AF79-61E5916EA6A3}" name="Video"/>
+    <tableColumn id="40" xr3:uid="{357C99F3-1B50-45FB-924B-05866BC6ABBF}" name="Use Soundboard"/>
+    <tableColumn id="41" xr3:uid="{7B8CD017-D308-4F9F-8FFB-5AC6BFC51D9C}" name="Use External Sounds"/>
+    <tableColumn id="42" xr3:uid="{AEB6674A-A193-47DF-967D-AE36B2BD706A}" name="Use Voice Activity"/>
+    <tableColumn id="43" xr3:uid="{38085B43-C6CF-46C8-8A51-743713D80860}" name="Priority Speaker"/>
+    <tableColumn id="44" xr3:uid="{35D0F0AB-0DF8-47D1-B562-6CF38864B804}" name="Mute Members"/>
+    <tableColumn id="45" xr3:uid="{6523CE14-0284-48D7-AD53-76F3CFA70400}" name="Deafen Members"/>
+    <tableColumn id="46" xr3:uid="{CC1A24C5-62D9-47AB-A943-49F1D7329A5C}" name="Move Members"/>
+    <tableColumn id="47" xr3:uid="{63ED3F50-939F-412F-A3FA-8318EB34216D}" name="Set Voice Channel Status"/>
+    <tableColumn id="48" xr3:uid="{EE0C1255-0262-4687-BCB0-EC7384D7D138}" name="Apps Permissions"/>
+    <tableColumn id="49" xr3:uid="{EB63AFD1-AB83-4C27-B991-B5F252D6B81A}" name="Use Application Commands"/>
+    <tableColumn id="50" xr3:uid="{79F35000-1F2F-417D-9585-96DAE2A836C8}" name="Use Activities"/>
+    <tableColumn id="51" xr3:uid="{A7FAAE3D-913B-4F56-98DF-3F823D8BD2BB}" name="Use External Apps"/>
+    <tableColumn id="52" xr3:uid="{7BE21AC3-A413-4466-BEC7-DCB9AA9DD458}" name="Stage Channel Permissions"/>
+    <tableColumn id="53" xr3:uid="{C48075D3-9777-426F-A032-158905AD914A}" name="Request to Speak"/>
+    <tableColumn id="54" xr3:uid="{1EC3C5C9-187A-4AC0-B79A-D1643F379BDE}" name="Events Permissions"/>
+    <tableColumn id="55" xr3:uid="{87486023-445E-48E2-9C4A-ADCC491CD016}" name="Create Events"/>
+    <tableColumn id="56" xr3:uid="{930BC840-CDA7-4DDA-8FE7-0C1FB331B4DC}" name="Manage Events"/>
+    <tableColumn id="57" xr3:uid="{5A173D14-8CAD-4F97-BD4D-8DD4CB3992A7}" name="Advanced Permissions"/>
+    <tableColumn id="58" xr3:uid="{6480192C-5D46-4A86-9BA0-318B754FB5A9}" name="Administrator"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21240,6 +21327,3456 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35687895-CD9E-436E-9CC3-A4DCE3811747}">
   <dimension ref="A1:BF22"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" t="s">
+        <v>75</v>
+      </c>
+      <c r="T22" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0F2CFD-99E2-4878-82F7-C9BE0FCC25D3}">
+  <dimension ref="A1:BF21"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -23919,7 +27456,7 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -24071,7 +27608,7 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -24223,7 +27760,7 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
@@ -24375,7 +27912,7 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>75</v>
@@ -24408,7 +27945,7 @@
         <v>75</v>
       </c>
       <c r="N21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O21" t="s">
         <v>75</v>
@@ -24522,158 +28059,6 @@
         <v>75</v>
       </c>
       <c r="BF21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>75</v>
-      </c>
-      <c r="R22" t="s">
-        <v>75</v>
-      </c>
-      <c r="T22" t="s">
-        <v>75</v>
-      </c>
-      <c r="U22" t="s">
-        <v>75</v>
-      </c>
-      <c r="V22" t="s">
-        <v>75</v>
-      </c>
-      <c r="W22" t="s">
-        <v>75</v>
-      </c>
-      <c r="X22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF22" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Community Roles/Community Roles.xlsx
+++ b/Community Roles/Community Roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimon\Documents\GitLab\fallen\fallen-discord-community-server\Community Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA83EA25-C4E5-4109-8B1F-A0CBB4470917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF938AD-A7FA-47FD-B500-FBF88CBDBF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{6C3D2279-9901-4A81-AE9E-01194CD8FEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="050125" sheetId="17" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="050825" sheetId="21" r:id="rId5"/>
     <sheet name="051325" sheetId="22" r:id="rId6"/>
     <sheet name="052425" sheetId="23" r:id="rId7"/>
-    <sheet name="Current" sheetId="24" r:id="rId8"/>
+    <sheet name="052525" sheetId="24" r:id="rId8"/>
+    <sheet name="Current" sheetId="25" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8569" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9727" uniqueCount="88">
   <si>
     <t>Role</t>
   </si>
@@ -302,6 +303,12 @@
   <si>
     <t>Paragon</t>
   </si>
+  <si>
+    <t>J.A.R.V.I.S.</t>
+  </si>
+  <si>
+    <t>AoC Guest</t>
+  </si>
 </sst>
 </file>
 
@@ -352,7 +359,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -519,7 +545,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}" name="Table1" displayName="Table1" ref="A1:BC22" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:BC22" xr:uid="{25337DEE-6C41-45E8-842A-008095AB529C}"/>
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{2B2E9E74-4A9B-4E97-AC03-F5ECD4E1424A}" name="Role"/>
@@ -583,7 +609,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}" name="Table2" displayName="Table2" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{0D48C686-A96F-412D-BC99-D5A30D8C6238}" name="Role"/>
@@ -650,7 +676,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5DB501C-9B56-45B3-87BE-C75D37C2FF87}" name="Table24" displayName="Table24" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{F802F721-228F-4D5C-82B8-A874EB147986}" name="Role"/>
@@ -717,7 +743,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{03A5501D-6FB9-4029-987E-145E43D8BB6B}" name="Table245" displayName="Table245" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{62C5C7CE-9663-4D8A-B0CA-33328B56533B}" name="Role"/>
@@ -784,7 +810,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF9E34A-2C73-4A42-810C-BBEF4B9144FB}" name="Table2456" displayName="Table2456" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF9E34A-2C73-4A42-810C-BBEF4B9144FB}" name="Table2456" displayName="Table2456" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:BF22" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{7EA7ADF0-B5AF-4BDA-A3A7-821826903A3F}" name="Role"/>
@@ -851,7 +877,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D17BB4-5856-4270-B44D-BF7733BCE4F0}" name="Table24567" displayName="Table24567" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D1D17BB4-5856-4270-B44D-BF7733BCE4F0}" name="Table24567" displayName="Table24567" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{D48B5F1A-7007-46A0-8B99-715F1B519E71}" name="Role"/>
@@ -918,7 +944,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7B7D03F5-13A0-4099-833C-0531FD789F16}" name="Table245678" displayName="Table245678" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7B7D03F5-13A0-4099-833C-0531FD789F16}" name="Table245678" displayName="Table245678" ref="A1:BF22" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:BF22" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{D45F072C-78E9-476A-8900-9F10ADB27876}" name="Role"/>
@@ -985,7 +1011,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7615AE6C-233F-4B77-AA21-343382C72510}" name="Table2456789" displayName="Table2456789" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7615AE6C-233F-4B77-AA21-343382C72510}" name="Table2456789" displayName="Table2456789" ref="A1:BF21" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:BF21" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{6D8CBA23-362D-4997-8E42-6AB47C3B0AAE}" name="Role"/>
@@ -1046,6 +1072,73 @@
     <tableColumn id="56" xr3:uid="{930BC840-CDA7-4DDA-8FE7-0C1FB331B4DC}" name="Manage Events"/>
     <tableColumn id="57" xr3:uid="{5A173D14-8CAD-4F97-BD4D-8DD4CB3992A7}" name="Advanced Permissions"/>
     <tableColumn id="58" xr3:uid="{6480192C-5D46-4A86-9BA0-318B754FB5A9}" name="Administrator"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F2B0D4DA-2320-4B58-84FE-F5E10540C9FF}" name="Table245678910" displayName="Table245678910" ref="A1:BF23" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BF23" xr:uid="{1AE6F908-6EC8-4CC4-B1DC-44DBAD2C66F6}"/>
+  <tableColumns count="58">
+    <tableColumn id="1" xr3:uid="{BD2D5A4E-D68D-4AE2-85ED-95BAE5BA0A73}" name="Role"/>
+    <tableColumn id="2" xr3:uid="{DC0629D0-E81B-42A4-BEDE-B133EF95D2EF}" name="General Server Permissions"/>
+    <tableColumn id="3" xr3:uid="{7B54D74D-6E34-4CAC-BB11-1B5A0A35CEFB}" name="View Channels"/>
+    <tableColumn id="4" xr3:uid="{8D0FB698-0D57-4679-BA01-4423B84D03E7}" name="Manage Channels"/>
+    <tableColumn id="5" xr3:uid="{B866DFA9-4A86-4E2F-BE45-97039E2BC869}" name="Manage Roles"/>
+    <tableColumn id="6" xr3:uid="{5D9B1EB9-C278-4D9B-ADB1-809A6BBEFF78}" name="Create Expressions"/>
+    <tableColumn id="7" xr3:uid="{7A0F77D8-29D4-4427-A5AC-746B6074C24E}" name="Manage Expressions"/>
+    <tableColumn id="8" xr3:uid="{8E102A9A-8A1D-4421-BAC9-F54EAC8C9676}" name="View Audit Log"/>
+    <tableColumn id="9" xr3:uid="{CD8CC5DD-FA74-4CA3-9406-612402238242}" name="View Server Insights"/>
+    <tableColumn id="10" xr3:uid="{4D7D9FC7-85CF-44D5-BDA4-200BA2562B74}" name="Manage Webhooks"/>
+    <tableColumn id="11" xr3:uid="{F6D70A0E-5992-446F-AFCA-B5943EFE6389}" name="Manage Server"/>
+    <tableColumn id="12" xr3:uid="{F65C0B64-31A3-470B-9E71-E7B164A72437}" name="Membership Permissions"/>
+    <tableColumn id="13" xr3:uid="{F6CAC18E-8A5D-46EE-988F-579B30058BDA}" name="Create Invite"/>
+    <tableColumn id="14" xr3:uid="{55CDC7A1-A61A-458D-98BF-A20B4B4BF7A8}" name="Change Nickname"/>
+    <tableColumn id="15" xr3:uid="{F1FB46E0-C686-4073-9F8E-BF0D38970C05}" name="Manage Nicknames"/>
+    <tableColumn id="16" xr3:uid="{0901B372-17E6-449A-A93F-E637B1C2E3ED}" name="Kick, Approve, and Reject Members"/>
+    <tableColumn id="17" xr3:uid="{6B7DCBAC-3CF0-4444-A720-A6845F1F4389}" name="Ban Members"/>
+    <tableColumn id="18" xr3:uid="{F6E19026-32EF-45BE-8803-8850BBB24107}" name="Timeout Members"/>
+    <tableColumn id="19" xr3:uid="{89D21B8F-588D-4FFD-BD33-2C551B71B913}" name="Text Channel Permissions"/>
+    <tableColumn id="20" xr3:uid="{5BB2BBC9-50DA-45EF-94DD-A36386E2A26F}" name="Send Messages"/>
+    <tableColumn id="21" xr3:uid="{9CCAE2B7-CFF5-4987-8523-1BF1514D50A4}" name="Send Messages in Threads"/>
+    <tableColumn id="22" xr3:uid="{F61600DA-4A98-4BC7-94F8-07DF442691B3}" name="Create Public Threads"/>
+    <tableColumn id="23" xr3:uid="{7177F859-18A4-4CD6-9949-4C69FAAF404C}" name="Create Private Threads"/>
+    <tableColumn id="24" xr3:uid="{0A6C96AD-6E53-4D80-865C-7A08A6F4FFBA}" name="Embed Links"/>
+    <tableColumn id="25" xr3:uid="{B69AB74E-166E-4634-A639-16AC41CC8ACA}" name="Attach Files"/>
+    <tableColumn id="26" xr3:uid="{23F6A573-232C-48CE-9F86-6A5A36EE8AB9}" name="Add Reactions"/>
+    <tableColumn id="27" xr3:uid="{66D60EBD-53D9-4FC3-9341-2B5C990E7627}" name="Use External Emoji"/>
+    <tableColumn id="28" xr3:uid="{1807D77E-D590-40CA-9AA8-EF7DAD2975DE}" name="Use External Stickers"/>
+    <tableColumn id="29" xr3:uid="{FD228C04-3731-461A-B2DB-614FBC77E72C}" name="Mention @everyone, @here, and All Roles"/>
+    <tableColumn id="30" xr3:uid="{9706A779-CE38-44BA-9504-B0A116B44F5F}" name="Manage Messages"/>
+    <tableColumn id="31" xr3:uid="{C414904E-D755-48B1-AA21-95676D3CE112}" name="Manage Threads"/>
+    <tableColumn id="32" xr3:uid="{A6FD2BA0-7E2F-4FE3-9669-8AE4BDB484D8}" name="Read Message History"/>
+    <tableColumn id="33" xr3:uid="{FF1EE891-E466-4306-9DA4-4CBADF9AF533}" name="Send Text-to-Speech Messages"/>
+    <tableColumn id="34" xr3:uid="{A5748675-7E94-4A42-806F-5E6501D7E5E0}" name="Send Voice Messages"/>
+    <tableColumn id="35" xr3:uid="{48A981CE-FED1-496A-9A35-B0D19186CEDB}" name="Create Polls"/>
+    <tableColumn id="36" xr3:uid="{837538C2-E9CC-4F45-A6CB-B8F72A95A463}" name="Voice Channel Permissions"/>
+    <tableColumn id="37" xr3:uid="{FD23CF48-A489-4C21-A255-841EC4599AFD}" name="Connect"/>
+    <tableColumn id="38" xr3:uid="{E8C6EB7A-4CAB-41B6-8C1F-827059A5C312}" name="Speak"/>
+    <tableColumn id="39" xr3:uid="{66FF0ABC-C2E5-4264-A821-F06E7D60369E}" name="Video"/>
+    <tableColumn id="40" xr3:uid="{86A1F122-6F11-40C8-B1D1-62DE5C5F41C3}" name="Use Soundboard"/>
+    <tableColumn id="41" xr3:uid="{124578E5-9D90-4DDB-94EC-6A3006F076FE}" name="Use External Sounds"/>
+    <tableColumn id="42" xr3:uid="{3BEB42C9-D651-46C0-9472-CFBF632C0A2F}" name="Use Voice Activity"/>
+    <tableColumn id="43" xr3:uid="{C862F8C7-62A4-4C55-84F2-AD5E900371A7}" name="Priority Speaker"/>
+    <tableColumn id="44" xr3:uid="{87744E32-C39D-4952-8210-B996855BE715}" name="Mute Members"/>
+    <tableColumn id="45" xr3:uid="{5E3FC520-A4AC-40D2-BB7A-B21269AAAA00}" name="Deafen Members"/>
+    <tableColumn id="46" xr3:uid="{6D1E555E-9630-46A0-AE12-30CB6C916DD7}" name="Move Members"/>
+    <tableColumn id="47" xr3:uid="{A3D833B4-117A-45B8-9DAA-F02BC421A0DA}" name="Set Voice Channel Status"/>
+    <tableColumn id="48" xr3:uid="{7FAC7ACC-9BDC-40AC-B0CF-B2146C0A7186}" name="Apps Permissions"/>
+    <tableColumn id="49" xr3:uid="{C2454616-285A-449D-A113-C96B82834CE9}" name="Use Application Commands"/>
+    <tableColumn id="50" xr3:uid="{65446BE9-62F3-4489-998E-7ECACD713555}" name="Use Activities"/>
+    <tableColumn id="51" xr3:uid="{F40066AB-47CA-48A5-83AF-EEC3E11E4AAB}" name="Use External Apps"/>
+    <tableColumn id="52" xr3:uid="{5FE6F218-986A-4C58-81EC-73147A428242}" name="Stage Channel Permissions"/>
+    <tableColumn id="53" xr3:uid="{14911D22-F40C-4C15-98B9-788DB7C2E531}" name="Request to Speak"/>
+    <tableColumn id="54" xr3:uid="{B1AC773D-EF26-4401-9872-7C9FB83F7122}" name="Events Permissions"/>
+    <tableColumn id="55" xr3:uid="{F5FBCDC3-84B9-4374-B223-39DA24CDA328}" name="Create Events"/>
+    <tableColumn id="56" xr3:uid="{AB06BE03-5D01-4B58-944A-C307981C3B0A}" name="Manage Events"/>
+    <tableColumn id="57" xr3:uid="{08896035-2DF5-4AF7-ADC6-0191272467B1}" name="Advanced Permissions"/>
+    <tableColumn id="58" xr3:uid="{D24FCBF4-662D-43FC-B6D2-E7226538A87F}" name="Administrator"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24777,6 +24870,3304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0F2CFD-99E2-4878-82F7-C9BE0FCC25D3}">
   <dimension ref="A1:BF21"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2675C17C-EDCB-4356-B661-A50F1A18FA57}">
+  <dimension ref="A1:BF23"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -25480,151 +28871,151 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AH5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AI5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AK5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AL5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AM5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AN5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AO5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AP5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AQ5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AR5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AS5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AT5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AU5" t="s">
         <v>75</v>
       </c>
       <c r="AW5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AX5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AY5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BA5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BC5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BD5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BF5" t="s">
         <v>71</v>
@@ -25784,16 +29175,16 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -25802,7 +29193,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
         <v>75</v>
@@ -25850,22 +29241,22 @@
         <v>71</v>
       </c>
       <c r="Z7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s">
         <v>75</v>
       </c>
       <c r="AC7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s">
         <v>71</v>
@@ -25883,7 +29274,7 @@
         <v>71</v>
       </c>
       <c r="AL7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="s">
         <v>75</v>
@@ -25936,16 +29327,16 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -25954,7 +29345,7 @@
         <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
         <v>75</v>
@@ -26002,22 +29393,22 @@
         <v>71</v>
       </c>
       <c r="Z8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s">
         <v>75</v>
       </c>
       <c r="AC8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s">
         <v>71</v>
@@ -26035,7 +29426,7 @@
         <v>71</v>
       </c>
       <c r="AL8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AM8" t="s">
         <v>75</v>
@@ -26240,7 +29631,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
@@ -26273,7 +29664,7 @@
         <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
         <v>75</v>
@@ -26387,12 +29778,12 @@
         <v>75</v>
       </c>
       <c r="BF10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -26544,7 +29935,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -26696,7 +30087,7 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>75</v>
@@ -26848,7 +30239,7 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -27000,7 +30391,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -27152,7 +30543,7 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -27304,7 +30695,7 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
@@ -27456,7 +30847,7 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -27608,7 +30999,7 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -27760,7 +31151,7 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
@@ -27912,153 +31303,457 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" t="s">
+        <v>75</v>
+      </c>
+      <c r="T22" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" t="s">
-        <v>75</v>
-      </c>
-      <c r="N21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" t="s">
-        <v>75</v>
-      </c>
-      <c r="P21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>75</v>
-      </c>
-      <c r="R21" t="s">
-        <v>75</v>
-      </c>
-      <c r="T21" t="s">
-        <v>75</v>
-      </c>
-      <c r="U21" t="s">
-        <v>75</v>
-      </c>
-      <c r="V21" t="s">
-        <v>75</v>
-      </c>
-      <c r="W21" t="s">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF21" t="s">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" t="s">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s">
+        <v>75</v>
+      </c>
+      <c r="U23" t="s">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF23" t="s">
         <v>75</v>
       </c>
     </row>
